--- a/Results/Accuracy.xlsx
+++ b/Results/Accuracy.xlsx
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -256,13 +256,7 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -280,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -300,12 +294,6 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1268,13 +1256,23 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="5">
+        <v>0.717</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.099</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.282</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.382</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>185.206</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1359,15 +1357,15 @@
         <v>0.325</v>
       </c>
       <c r="D34" s="3">
-        <v>2.587</v>
+        <v>1.473</v>
       </c>
       <c r="E34" s="3">
-        <v>5.881</v>
+        <v>1.171</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3">
-        <v>16.72</v>
+        <v>17.598</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1450,20 +1448,20 @@
         <v>0.07</v>
       </c>
       <c r="C37" s="3">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="D37" s="3">
-        <v>1.593</v>
+        <v>0.15</v>
       </c>
       <c r="E37" s="3">
-        <v>1.504</v>
+        <v>1.591</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3">
-        <v>1.671</v>
+        <v>1.672</v>
       </c>
       <c r="H37" s="3">
-        <v>11.462</v>
+        <v>17.462</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1515,14 +1513,14 @@
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1542,24 +1540,24 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="B40" s="6">
-        <v>0.079</v>
+      <c r="B40" s="5">
+        <v>0.08</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>0.153</v>
       </c>
-      <c r="D40" s="7">
-        <v>15.988</v>
+      <c r="D40" s="5">
+        <v>0.376</v>
       </c>
-      <c r="E40" s="7">
-        <v>1.979</v>
+      <c r="E40" s="5">
+        <v>9.513</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3">
-        <v>14.5</v>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5">
+        <v>21.168</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1579,23 +1577,14 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="B41" s="7">
-        <v>0.101</v>
-      </c>
-      <c r="C41" s="8">
-        <f>AVERAGE(C35:C40)</f>
-        <v>0.245</v>
-      </c>
-      <c r="D41" s="6">
-        <v>14.868</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1.008</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1618,14 +1607,14 @@
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1645,24 +1634,24 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="B43" s="3">
-        <v>1.947</v>
+      <c r="B43" s="5">
+        <v>2.116</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>0.031</v>
       </c>
-      <c r="D43" s="3">
-        <v>3.255</v>
+      <c r="D43" s="5">
+        <v>0.363</v>
       </c>
-      <c r="E43" s="3">
-        <v>3.09</v>
+      <c r="E43" s="5">
+        <v>1.739</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3">
-        <v>98.08</v>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5">
+        <v>90.175</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1682,14 +1671,14 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1712,14 +1701,14 @@
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1739,24 +1728,24 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="B46" s="3">
+      <c r="B46" s="5">
         <v>0.554</v>
       </c>
-      <c r="C46" s="3">
-        <v>0.34</v>
+      <c r="C46" s="5">
+        <v>0.342</v>
       </c>
-      <c r="D46" s="3">
-        <v>1.069</v>
+      <c r="D46" s="5">
+        <v>0.272</v>
       </c>
-      <c r="E46" s="3">
-        <v>4.497</v>
+      <c r="E46" s="5">
+        <v>0.566</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3">
-        <v>75.837</v>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5">
+        <v>78.89</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1776,14 +1765,14 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1806,14 +1795,14 @@
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1833,24 +1822,24 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="B49" s="3">
+      <c r="B49" s="5">
         <v>0.782</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>0.026</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
+        <v>1.537</v>
+      </c>
+      <c r="E49" s="5">
         <v>0.382</v>
       </c>
-      <c r="E49" s="3">
-        <v>16.678</v>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5">
+        <v>47.67</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3">
-        <v>45.452</v>
-      </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1870,14 +1859,14 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -1900,14 +1889,14 @@
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -1927,24 +1916,14 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="B52" s="3">
-        <v>1.321</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.865</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1.153</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.83</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3">
-        <v>50.28</v>
-      </c>
-      <c r="I52" s="2"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -1964,14 +1943,14 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -1994,14 +1973,14 @@
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2021,24 +2000,14 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="B55" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2.402</v>
-      </c>
-      <c r="E55" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3">
-        <v>28.34</v>
-      </c>
-      <c r="I55" s="2"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -2058,14 +2027,14 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -2088,14 +2057,14 @@
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -2115,24 +2084,14 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="B58" s="3">
-        <v>0.484</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="D58" s="3">
-        <v>10.696</v>
-      </c>
-      <c r="E58" s="3">
-        <v>36.488</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3">
-        <v>50.84</v>
-      </c>
-      <c r="I58" s="2"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -2152,14 +2111,14 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -2182,14 +2141,14 @@
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -2209,24 +2168,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="B61" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.826</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1.926</v>
-      </c>
-      <c r="E61" s="3">
-        <v>35.934</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3">
-        <v>238.578</v>
-      </c>
-      <c r="I61" s="2"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -2246,14 +2195,14 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -2276,14 +2225,14 @@
       <c r="A63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -2303,26 +2252,14 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="B64" s="3">
-        <v>0.738</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1.074</v>
-      </c>
-      <c r="D64" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="E64" s="3">
-        <v>32.267</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.516</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3">
-        <v>6763.188</v>
-      </c>
-      <c r="I64" s="2"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -2342,14 +2279,14 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -2372,14 +2309,14 @@
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -2399,22 +2336,14 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="B67" s="3">
-        <v>0.075</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1.019</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3">
-        <v>3.093</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3">
-        <v>23.938</v>
-      </c>
-      <c r="I67" s="2"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -2434,14 +2363,14 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -2464,14 +2393,14 @@
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -2491,22 +2420,14 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="B70" s="3">
-        <v>0.036</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1.059</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="3">
-        <v>32.646</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3">
-        <v>20.012</v>
-      </c>
-      <c r="I70" s="2"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -2526,14 +2447,14 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -2556,14 +2477,14 @@
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -2583,24 +2504,14 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="B73" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1.099</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="3">
-        <v>32.267</v>
-      </c>
-      <c r="F73" s="3">
-        <v>6.461</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3">
-        <v>458.328</v>
-      </c>
-      <c r="I73" s="2"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -2620,14 +2531,14 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -2650,14 +2561,14 @@
       <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -2677,24 +2588,14 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="B76" s="3">
-        <v>1.158</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1.044</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3">
-        <v>46.919</v>
-      </c>
-      <c r="F76" s="3">
-        <v>10.833</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3">
-        <v>504.31</v>
-      </c>
-      <c r="I76" s="2"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -2714,14 +2615,14 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -2744,14 +2645,14 @@
       <c r="A78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -2771,24 +2672,14 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="B79" s="3">
-        <v>0.534</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0.894</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3">
-        <v>34.075</v>
-      </c>
-      <c r="F79" s="3">
-        <v>43.407</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3">
-        <v>63.696</v>
-      </c>
-      <c r="I79" s="2"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -2808,14 +2699,14 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -2838,14 +2729,14 @@
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -2865,24 +2756,14 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="B82" s="3">
-        <v>0.837</v>
-      </c>
-      <c r="C82" s="3">
-        <v>0.322</v>
-      </c>
-      <c r="D82" s="3">
-        <v>17.815</v>
-      </c>
-      <c r="E82" s="3">
-        <v>15.862</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3">
-        <v>114.677</v>
-      </c>
-      <c r="I82" s="2"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -2902,14 +2783,14 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -2932,14 +2813,14 @@
       <c r="A84" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -2959,24 +2840,14 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="B85" s="3">
-        <v>0.318</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.814</v>
-      </c>
-      <c r="D85" s="3">
-        <v>3.985</v>
-      </c>
-      <c r="E85" s="3">
-        <v>3.78</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3">
-        <v>21.34</v>
-      </c>
-      <c r="I85" s="2"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -2996,14 +2867,14 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -3053,23 +2924,13 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="B88" s="3">
-        <v>0.674</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0.458</v>
-      </c>
-      <c r="D88" s="3">
-        <v>4.176</v>
-      </c>
-      <c r="E88" s="3">
-        <v>9.252</v>
-      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="3">
-        <v>38.048</v>
-      </c>
+      <c r="H88" s="3"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3147,23 +3008,13 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="B91" s="3">
-        <v>0.371</v>
-      </c>
-      <c r="C91" s="3">
-        <v>0.348</v>
-      </c>
-      <c r="D91" s="3">
-        <v>13.218</v>
-      </c>
-      <c r="E91" s="3">
-        <v>2.869</v>
-      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3">
-        <v>137.27</v>
-      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -3241,23 +3092,13 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="B94" s="3">
-        <v>0.895</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0.458</v>
-      </c>
-      <c r="D94" s="3">
-        <v>40.79</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1.874</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="3">
-        <v>28.742</v>
-      </c>
+      <c r="H94" s="3"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3335,23 +3176,13 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="B97" s="3">
-        <v>0.29</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0.299</v>
-      </c>
-      <c r="D97" s="3">
-        <v>0.834</v>
-      </c>
-      <c r="E97" s="3">
-        <v>7.009</v>
-      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="3">
-        <v>51.902</v>
-      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -3429,23 +3260,13 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="B100" s="3">
-        <v>0.391</v>
-      </c>
-      <c r="C100" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="D100" s="3">
-        <v>14.992</v>
-      </c>
-      <c r="E100" s="3">
-        <v>24.795</v>
-      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="3">
-        <v>220.94</v>
-      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6265,7 +6086,7 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="9"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -6293,7 +6114,7 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="9"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -6321,7 +6142,7 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="9"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -6349,7 +6170,7 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="9"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -6377,7 +6198,7 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="9"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -6405,7 +6226,7 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="9"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -6433,7 +6254,7 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="9"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -6461,7 +6282,7 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="9"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -6489,7 +6310,7 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="9"/>
+      <c r="A209" s="7"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -6517,7 +6338,7 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="9"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -6545,7 +6366,7 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="9"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -6573,7 +6394,7 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="9"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -6601,7 +6422,7 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="9"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -6629,7 +6450,7 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214">
-      <c r="A214" s="9"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -6657,7 +6478,7 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215">
-      <c r="A215" s="9"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -6685,7 +6506,7 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216">
-      <c r="A216" s="9"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -6713,7 +6534,7 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217">
-      <c r="A217" s="9"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -6741,7 +6562,7 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218">
-      <c r="A218" s="9"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -6769,7 +6590,7 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="219">
-      <c r="A219" s="9"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -6797,7 +6618,7 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="9"/>
+      <c r="A220" s="7"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -6825,7 +6646,7 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="9"/>
+      <c r="A221" s="7"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -6853,7 +6674,7 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="9"/>
+      <c r="A222" s="7"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -6881,7 +6702,7 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="9"/>
+      <c r="A223" s="7"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -6909,7 +6730,7 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="9"/>
+      <c r="A224" s="7"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -6937,7 +6758,7 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="9"/>
+      <c r="A225" s="7"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -6965,7 +6786,7 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="9"/>
+      <c r="A226" s="7"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -6993,7 +6814,7 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="9"/>
+      <c r="A227" s="7"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -7021,7 +6842,7 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="9"/>
+      <c r="A228" s="7"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -7049,7 +6870,7 @@
       <c r="Z228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="9"/>
+      <c r="A229" s="7"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -7077,7 +6898,7 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="9"/>
+      <c r="A230" s="7"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -7105,7 +6926,7 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="9"/>
+      <c r="A231" s="7"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -7133,7 +6954,7 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="9"/>
+      <c r="A232" s="7"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -7161,7 +6982,7 @@
       <c r="Z232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="9"/>
+      <c r="A233" s="7"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -7189,7 +7010,7 @@
       <c r="Z233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="9"/>
+      <c r="A234" s="7"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -7217,7 +7038,7 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="9"/>
+      <c r="A235" s="7"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -7245,7 +7066,7 @@
       <c r="Z235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="9"/>
+      <c r="A236" s="7"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -7273,7 +7094,7 @@
       <c r="Z236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="9"/>
+      <c r="A237" s="7"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -7301,7 +7122,7 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="9"/>
+      <c r="A238" s="7"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -7329,7 +7150,7 @@
       <c r="Z238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="9"/>
+      <c r="A239" s="7"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -7357,7 +7178,7 @@
       <c r="Z239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="9"/>
+      <c r="A240" s="7"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -7385,7 +7206,7 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="9"/>
+      <c r="A241" s="7"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -7413,7 +7234,7 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="9"/>
+      <c r="A242" s="7"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -7441,7 +7262,7 @@
       <c r="Z242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="9"/>
+      <c r="A243" s="7"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -7469,7 +7290,7 @@
       <c r="Z243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="9"/>
+      <c r="A244" s="7"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -7497,7 +7318,7 @@
       <c r="Z244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="9"/>
+      <c r="A245" s="7"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -7525,7 +7346,7 @@
       <c r="Z245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="9"/>
+      <c r="A246" s="7"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -7553,7 +7374,7 @@
       <c r="Z246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="9"/>
+      <c r="A247" s="7"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -7581,7 +7402,7 @@
       <c r="Z247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="9"/>
+      <c r="A248" s="7"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -7609,7 +7430,7 @@
       <c r="Z248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="9"/>
+      <c r="A249" s="7"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -7637,7 +7458,7 @@
       <c r="Z249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="9"/>
+      <c r="A250" s="7"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -7665,7 +7486,7 @@
       <c r="Z250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="9"/>
+      <c r="A251" s="7"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -7693,7 +7514,7 @@
       <c r="Z251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="9"/>
+      <c r="A252" s="7"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -7721,7 +7542,7 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="9"/>
+      <c r="A253" s="7"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -7749,7 +7570,7 @@
       <c r="Z253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="9"/>
+      <c r="A254" s="7"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -7777,7 +7598,7 @@
       <c r="Z254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="9"/>
+      <c r="A255" s="7"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -7805,7 +7626,7 @@
       <c r="Z255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="9"/>
+      <c r="A256" s="7"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -7833,7 +7654,7 @@
       <c r="Z256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="9"/>
+      <c r="A257" s="7"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -7861,7 +7682,7 @@
       <c r="Z257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="9"/>
+      <c r="A258" s="7"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -7889,7 +7710,7 @@
       <c r="Z258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="9"/>
+      <c r="A259" s="7"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -7917,7 +7738,7 @@
       <c r="Z259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="9"/>
+      <c r="A260" s="7"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -7945,7 +7766,7 @@
       <c r="Z260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="9"/>
+      <c r="A261" s="7"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -7973,7 +7794,7 @@
       <c r="Z261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="9"/>
+      <c r="A262" s="7"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -8001,7 +7822,7 @@
       <c r="Z262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="9"/>
+      <c r="A263" s="7"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -8029,7 +7850,7 @@
       <c r="Z263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="9"/>
+      <c r="A264" s="7"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -8057,7 +7878,7 @@
       <c r="Z264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="9"/>
+      <c r="A265" s="7"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -8085,7 +7906,7 @@
       <c r="Z265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="9"/>
+      <c r="A266" s="7"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -8113,7 +7934,7 @@
       <c r="Z266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="9"/>
+      <c r="A267" s="7"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -8141,7 +7962,7 @@
       <c r="Z267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="9"/>
+      <c r="A268" s="7"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -8169,7 +7990,7 @@
       <c r="Z268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="9"/>
+      <c r="A269" s="7"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -8197,7 +8018,7 @@
       <c r="Z269" s="2"/>
     </row>
     <row r="270">
-      <c r="A270" s="9"/>
+      <c r="A270" s="7"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -8225,7 +8046,7 @@
       <c r="Z270" s="2"/>
     </row>
     <row r="271">
-      <c r="A271" s="9"/>
+      <c r="A271" s="7"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -8253,7 +8074,7 @@
       <c r="Z271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="9"/>
+      <c r="A272" s="7"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -8281,7 +8102,7 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273">
-      <c r="A273" s="9"/>
+      <c r="A273" s="7"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -8309,7 +8130,7 @@
       <c r="Z273" s="2"/>
     </row>
     <row r="274">
-      <c r="A274" s="9"/>
+      <c r="A274" s="7"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -8337,7 +8158,7 @@
       <c r="Z274" s="2"/>
     </row>
     <row r="275">
-      <c r="A275" s="9"/>
+      <c r="A275" s="7"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -8365,7 +8186,7 @@
       <c r="Z275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="9"/>
+      <c r="A276" s="7"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -8393,7 +8214,7 @@
       <c r="Z276" s="2"/>
     </row>
     <row r="277">
-      <c r="A277" s="9"/>
+      <c r="A277" s="7"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -8421,7 +8242,7 @@
       <c r="Z277" s="2"/>
     </row>
     <row r="278">
-      <c r="A278" s="9"/>
+      <c r="A278" s="7"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -8449,7 +8270,7 @@
       <c r="Z278" s="2"/>
     </row>
     <row r="279">
-      <c r="A279" s="9"/>
+      <c r="A279" s="7"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -8477,7 +8298,7 @@
       <c r="Z279" s="2"/>
     </row>
     <row r="280">
-      <c r="A280" s="9"/>
+      <c r="A280" s="7"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -8505,7 +8326,7 @@
       <c r="Z280" s="2"/>
     </row>
     <row r="281">
-      <c r="A281" s="9"/>
+      <c r="A281" s="7"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -8533,7 +8354,7 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282">
-      <c r="A282" s="9"/>
+      <c r="A282" s="7"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -8561,7 +8382,7 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="9"/>
+      <c r="A283" s="7"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -8589,7 +8410,7 @@
       <c r="Z283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="9"/>
+      <c r="A284" s="7"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -8617,7 +8438,7 @@
       <c r="Z284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="9"/>
+      <c r="A285" s="7"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -8645,7 +8466,7 @@
       <c r="Z285" s="2"/>
     </row>
     <row r="286">
-      <c r="A286" s="9"/>
+      <c r="A286" s="7"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -8673,7 +8494,7 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287">
-      <c r="A287" s="9"/>
+      <c r="A287" s="7"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -8701,7 +8522,7 @@
       <c r="Z287" s="2"/>
     </row>
     <row r="288">
-      <c r="A288" s="9"/>
+      <c r="A288" s="7"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -8729,7 +8550,7 @@
       <c r="Z288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="9"/>
+      <c r="A289" s="7"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -8757,7 +8578,7 @@
       <c r="Z289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="9"/>
+      <c r="A290" s="7"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -8785,7 +8606,7 @@
       <c r="Z290" s="2"/>
     </row>
     <row r="291">
-      <c r="A291" s="9"/>
+      <c r="A291" s="7"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -8813,7 +8634,7 @@
       <c r="Z291" s="2"/>
     </row>
     <row r="292">
-      <c r="A292" s="9"/>
+      <c r="A292" s="7"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -8841,7 +8662,7 @@
       <c r="Z292" s="2"/>
     </row>
     <row r="293">
-      <c r="A293" s="9"/>
+      <c r="A293" s="7"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -8869,7 +8690,7 @@
       <c r="Z293" s="2"/>
     </row>
     <row r="294">
-      <c r="A294" s="9"/>
+      <c r="A294" s="7"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -8897,7 +8718,7 @@
       <c r="Z294" s="2"/>
     </row>
     <row r="295">
-      <c r="A295" s="9"/>
+      <c r="A295" s="7"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -8925,7 +8746,7 @@
       <c r="Z295" s="2"/>
     </row>
     <row r="296">
-      <c r="A296" s="9"/>
+      <c r="A296" s="7"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -8953,7 +8774,7 @@
       <c r="Z296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="9"/>
+      <c r="A297" s="7"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -8981,7 +8802,7 @@
       <c r="Z297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="9"/>
+      <c r="A298" s="7"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -9009,7 +8830,7 @@
       <c r="Z298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="9"/>
+      <c r="A299" s="7"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -9037,7 +8858,7 @@
       <c r="Z299" s="2"/>
     </row>
     <row r="300">
-      <c r="A300" s="9"/>
+      <c r="A300" s="7"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -9065,7 +8886,7 @@
       <c r="Z300" s="2"/>
     </row>
     <row r="301">
-      <c r="A301" s="9"/>
+      <c r="A301" s="7"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -9093,7 +8914,7 @@
       <c r="Z301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="9"/>
+      <c r="A302" s="7"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -9121,7 +8942,7 @@
       <c r="Z302" s="2"/>
     </row>
     <row r="303">
-      <c r="A303" s="9"/>
+      <c r="A303" s="7"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -9149,7 +8970,7 @@
       <c r="Z303" s="2"/>
     </row>
     <row r="304">
-      <c r="A304" s="9"/>
+      <c r="A304" s="7"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -9177,7 +8998,7 @@
       <c r="Z304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="9"/>
+      <c r="A305" s="7"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -9205,7 +9026,7 @@
       <c r="Z305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="9"/>
+      <c r="A306" s="7"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -9233,7 +9054,7 @@
       <c r="Z306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="9"/>
+      <c r="A307" s="7"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -9261,7 +9082,7 @@
       <c r="Z307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="9"/>
+      <c r="A308" s="7"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -9289,7 +9110,7 @@
       <c r="Z308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="9"/>
+      <c r="A309" s="7"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -9317,7 +9138,7 @@
       <c r="Z309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="9"/>
+      <c r="A310" s="7"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -9345,7 +9166,7 @@
       <c r="Z310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="9"/>
+      <c r="A311" s="7"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -9373,7 +9194,7 @@
       <c r="Z311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="9"/>
+      <c r="A312" s="7"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -9401,7 +9222,7 @@
       <c r="Z312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="9"/>
+      <c r="A313" s="7"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -9429,7 +9250,7 @@
       <c r="Z313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="9"/>
+      <c r="A314" s="7"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -9457,7 +9278,7 @@
       <c r="Z314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="9"/>
+      <c r="A315" s="7"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -9485,7 +9306,7 @@
       <c r="Z315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="9"/>
+      <c r="A316" s="7"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -9513,7 +9334,7 @@
       <c r="Z316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="9"/>
+      <c r="A317" s="7"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -9541,7 +9362,7 @@
       <c r="Z317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="9"/>
+      <c r="A318" s="7"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -9569,7 +9390,7 @@
       <c r="Z318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="9"/>
+      <c r="A319" s="7"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -9597,7 +9418,7 @@
       <c r="Z319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="9"/>
+      <c r="A320" s="7"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -9625,7 +9446,7 @@
       <c r="Z320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="9"/>
+      <c r="A321" s="7"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -9653,7 +9474,7 @@
       <c r="Z321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="9"/>
+      <c r="A322" s="7"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -9681,7 +9502,7 @@
       <c r="Z322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="9"/>
+      <c r="A323" s="7"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -9709,7 +9530,7 @@
       <c r="Z323" s="2"/>
     </row>
     <row r="324">
-      <c r="A324" s="9"/>
+      <c r="A324" s="7"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -9737,7 +9558,7 @@
       <c r="Z324" s="2"/>
     </row>
     <row r="325">
-      <c r="A325" s="9"/>
+      <c r="A325" s="7"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -9765,7 +9586,7 @@
       <c r="Z325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="9"/>
+      <c r="A326" s="7"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -9793,7 +9614,7 @@
       <c r="Z326" s="2"/>
     </row>
     <row r="327">
-      <c r="A327" s="9"/>
+      <c r="A327" s="7"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -9821,7 +9642,7 @@
       <c r="Z327" s="2"/>
     </row>
     <row r="328">
-      <c r="A328" s="9"/>
+      <c r="A328" s="7"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -9849,7 +9670,7 @@
       <c r="Z328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="9"/>
+      <c r="A329" s="7"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -9877,7 +9698,7 @@
       <c r="Z329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="9"/>
+      <c r="A330" s="7"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -9905,7 +9726,7 @@
       <c r="Z330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="9"/>
+      <c r="A331" s="7"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -9933,7 +9754,7 @@
       <c r="Z331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="9"/>
+      <c r="A332" s="7"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -9961,7 +9782,7 @@
       <c r="Z332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="9"/>
+      <c r="A333" s="7"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -9989,7 +9810,7 @@
       <c r="Z333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="9"/>
+      <c r="A334" s="7"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -10017,7 +9838,7 @@
       <c r="Z334" s="2"/>
     </row>
     <row r="335">
-      <c r="A335" s="9"/>
+      <c r="A335" s="7"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -10045,7 +9866,7 @@
       <c r="Z335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="9"/>
+      <c r="A336" s="7"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -10073,7 +9894,7 @@
       <c r="Z336" s="2"/>
     </row>
     <row r="337">
-      <c r="A337" s="9"/>
+      <c r="A337" s="7"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -10101,7 +9922,7 @@
       <c r="Z337" s="2"/>
     </row>
     <row r="338">
-      <c r="A338" s="9"/>
+      <c r="A338" s="7"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -10129,7 +9950,7 @@
       <c r="Z338" s="2"/>
     </row>
     <row r="339">
-      <c r="A339" s="9"/>
+      <c r="A339" s="7"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -10157,7 +9978,7 @@
       <c r="Z339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="9"/>
+      <c r="A340" s="7"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -10185,7 +10006,7 @@
       <c r="Z340" s="2"/>
     </row>
     <row r="341">
-      <c r="A341" s="9"/>
+      <c r="A341" s="7"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -10213,7 +10034,7 @@
       <c r="Z341" s="2"/>
     </row>
     <row r="342">
-      <c r="A342" s="9"/>
+      <c r="A342" s="7"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -10241,7 +10062,7 @@
       <c r="Z342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="9"/>
+      <c r="A343" s="7"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -10269,7 +10090,7 @@
       <c r="Z343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="9"/>
+      <c r="A344" s="7"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -10297,7 +10118,7 @@
       <c r="Z344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="9"/>
+      <c r="A345" s="7"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -10325,7 +10146,7 @@
       <c r="Z345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="9"/>
+      <c r="A346" s="7"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -10353,7 +10174,7 @@
       <c r="Z346" s="2"/>
     </row>
     <row r="347">
-      <c r="A347" s="9"/>
+      <c r="A347" s="7"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -10381,7 +10202,7 @@
       <c r="Z347" s="2"/>
     </row>
     <row r="348">
-      <c r="A348" s="9"/>
+      <c r="A348" s="7"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -10409,7 +10230,7 @@
       <c r="Z348" s="2"/>
     </row>
     <row r="349">
-      <c r="A349" s="9"/>
+      <c r="A349" s="7"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -10437,7 +10258,7 @@
       <c r="Z349" s="2"/>
     </row>
     <row r="350">
-      <c r="A350" s="9"/>
+      <c r="A350" s="7"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -10465,7 +10286,7 @@
       <c r="Z350" s="2"/>
     </row>
     <row r="351">
-      <c r="A351" s="9"/>
+      <c r="A351" s="7"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -10493,7 +10314,7 @@
       <c r="Z351" s="2"/>
     </row>
     <row r="352">
-      <c r="A352" s="9"/>
+      <c r="A352" s="7"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -10521,7 +10342,7 @@
       <c r="Z352" s="2"/>
     </row>
     <row r="353">
-      <c r="A353" s="9"/>
+      <c r="A353" s="7"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -10549,7 +10370,7 @@
       <c r="Z353" s="2"/>
     </row>
     <row r="354">
-      <c r="A354" s="9"/>
+      <c r="A354" s="7"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -10577,7 +10398,7 @@
       <c r="Z354" s="2"/>
     </row>
     <row r="355">
-      <c r="A355" s="9"/>
+      <c r="A355" s="7"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -10605,7 +10426,7 @@
       <c r="Z355" s="2"/>
     </row>
     <row r="356">
-      <c r="A356" s="9"/>
+      <c r="A356" s="7"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -10633,7 +10454,7 @@
       <c r="Z356" s="2"/>
     </row>
     <row r="357">
-      <c r="A357" s="9"/>
+      <c r="A357" s="7"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -10661,7 +10482,7 @@
       <c r="Z357" s="2"/>
     </row>
     <row r="358">
-      <c r="A358" s="9"/>
+      <c r="A358" s="7"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -10689,7 +10510,7 @@
       <c r="Z358" s="2"/>
     </row>
     <row r="359">
-      <c r="A359" s="9"/>
+      <c r="A359" s="7"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -10717,7 +10538,7 @@
       <c r="Z359" s="2"/>
     </row>
     <row r="360">
-      <c r="A360" s="9"/>
+      <c r="A360" s="7"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -10745,7 +10566,7 @@
       <c r="Z360" s="2"/>
     </row>
     <row r="361">
-      <c r="A361" s="9"/>
+      <c r="A361" s="7"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -10773,7 +10594,7 @@
       <c r="Z361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="9"/>
+      <c r="A362" s="7"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -10801,7 +10622,7 @@
       <c r="Z362" s="2"/>
     </row>
     <row r="363">
-      <c r="A363" s="9"/>
+      <c r="A363" s="7"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -10829,7 +10650,7 @@
       <c r="Z363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="9"/>
+      <c r="A364" s="7"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -10857,7 +10678,7 @@
       <c r="Z364" s="2"/>
     </row>
     <row r="365">
-      <c r="A365" s="9"/>
+      <c r="A365" s="7"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -10885,7 +10706,7 @@
       <c r="Z365" s="2"/>
     </row>
     <row r="366">
-      <c r="A366" s="9"/>
+      <c r="A366" s="7"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -10913,7 +10734,7 @@
       <c r="Z366" s="2"/>
     </row>
     <row r="367">
-      <c r="A367" s="9"/>
+      <c r="A367" s="7"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -10941,7 +10762,7 @@
       <c r="Z367" s="2"/>
     </row>
     <row r="368">
-      <c r="A368" s="9"/>
+      <c r="A368" s="7"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -10969,7 +10790,7 @@
       <c r="Z368" s="2"/>
     </row>
     <row r="369">
-      <c r="A369" s="9"/>
+      <c r="A369" s="7"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -10997,7 +10818,7 @@
       <c r="Z369" s="2"/>
     </row>
     <row r="370">
-      <c r="A370" s="9"/>
+      <c r="A370" s="7"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -11025,7 +10846,7 @@
       <c r="Z370" s="2"/>
     </row>
     <row r="371">
-      <c r="A371" s="9"/>
+      <c r="A371" s="7"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -11053,7 +10874,7 @@
       <c r="Z371" s="2"/>
     </row>
     <row r="372">
-      <c r="A372" s="9"/>
+      <c r="A372" s="7"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -11081,7 +10902,7 @@
       <c r="Z372" s="2"/>
     </row>
     <row r="373">
-      <c r="A373" s="9"/>
+      <c r="A373" s="7"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -11109,7 +10930,7 @@
       <c r="Z373" s="2"/>
     </row>
     <row r="374">
-      <c r="A374" s="9"/>
+      <c r="A374" s="7"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -11137,7 +10958,7 @@
       <c r="Z374" s="2"/>
     </row>
     <row r="375">
-      <c r="A375" s="9"/>
+      <c r="A375" s="7"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -11165,7 +10986,7 @@
       <c r="Z375" s="2"/>
     </row>
     <row r="376">
-      <c r="A376" s="9"/>
+      <c r="A376" s="7"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -11193,7 +11014,7 @@
       <c r="Z376" s="2"/>
     </row>
     <row r="377">
-      <c r="A377" s="9"/>
+      <c r="A377" s="7"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -11221,7 +11042,7 @@
       <c r="Z377" s="2"/>
     </row>
     <row r="378">
-      <c r="A378" s="9"/>
+      <c r="A378" s="7"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -11249,7 +11070,7 @@
       <c r="Z378" s="2"/>
     </row>
     <row r="379">
-      <c r="A379" s="9"/>
+      <c r="A379" s="7"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -11277,7 +11098,7 @@
       <c r="Z379" s="2"/>
     </row>
     <row r="380">
-      <c r="A380" s="9"/>
+      <c r="A380" s="7"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -11305,7 +11126,7 @@
       <c r="Z380" s="2"/>
     </row>
     <row r="381">
-      <c r="A381" s="9"/>
+      <c r="A381" s="7"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -11333,7 +11154,7 @@
       <c r="Z381" s="2"/>
     </row>
     <row r="382">
-      <c r="A382" s="9"/>
+      <c r="A382" s="7"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -11361,7 +11182,7 @@
       <c r="Z382" s="2"/>
     </row>
     <row r="383">
-      <c r="A383" s="9"/>
+      <c r="A383" s="7"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -11389,7 +11210,7 @@
       <c r="Z383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="9"/>
+      <c r="A384" s="7"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -11417,7 +11238,7 @@
       <c r="Z384" s="2"/>
     </row>
     <row r="385">
-      <c r="A385" s="9"/>
+      <c r="A385" s="7"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -11445,7 +11266,7 @@
       <c r="Z385" s="2"/>
     </row>
     <row r="386">
-      <c r="A386" s="9"/>
+      <c r="A386" s="7"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -11473,7 +11294,7 @@
       <c r="Z386" s="2"/>
     </row>
     <row r="387">
-      <c r="A387" s="9"/>
+      <c r="A387" s="7"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -11501,7 +11322,7 @@
       <c r="Z387" s="2"/>
     </row>
     <row r="388">
-      <c r="A388" s="9"/>
+      <c r="A388" s="7"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -11529,7 +11350,7 @@
       <c r="Z388" s="2"/>
     </row>
     <row r="389">
-      <c r="A389" s="9"/>
+      <c r="A389" s="7"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -11557,7 +11378,7 @@
       <c r="Z389" s="2"/>
     </row>
     <row r="390">
-      <c r="A390" s="9"/>
+      <c r="A390" s="7"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -11585,7 +11406,7 @@
       <c r="Z390" s="2"/>
     </row>
     <row r="391">
-      <c r="A391" s="9"/>
+      <c r="A391" s="7"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -11613,7 +11434,7 @@
       <c r="Z391" s="2"/>
     </row>
     <row r="392">
-      <c r="A392" s="9"/>
+      <c r="A392" s="7"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -11641,7 +11462,7 @@
       <c r="Z392" s="2"/>
     </row>
     <row r="393">
-      <c r="A393" s="9"/>
+      <c r="A393" s="7"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -11669,7 +11490,7 @@
       <c r="Z393" s="2"/>
     </row>
     <row r="394">
-      <c r="A394" s="9"/>
+      <c r="A394" s="7"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -11697,7 +11518,7 @@
       <c r="Z394" s="2"/>
     </row>
     <row r="395">
-      <c r="A395" s="9"/>
+      <c r="A395" s="7"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -11725,7 +11546,7 @@
       <c r="Z395" s="2"/>
     </row>
     <row r="396">
-      <c r="A396" s="9"/>
+      <c r="A396" s="7"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -11753,7 +11574,7 @@
       <c r="Z396" s="2"/>
     </row>
     <row r="397">
-      <c r="A397" s="9"/>
+      <c r="A397" s="7"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -11781,7 +11602,7 @@
       <c r="Z397" s="2"/>
     </row>
     <row r="398">
-      <c r="A398" s="9"/>
+      <c r="A398" s="7"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -11809,7 +11630,7 @@
       <c r="Z398" s="2"/>
     </row>
     <row r="399">
-      <c r="A399" s="9"/>
+      <c r="A399" s="7"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -11837,7 +11658,7 @@
       <c r="Z399" s="2"/>
     </row>
     <row r="400">
-      <c r="A400" s="9"/>
+      <c r="A400" s="7"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -11865,7 +11686,7 @@
       <c r="Z400" s="2"/>
     </row>
     <row r="401">
-      <c r="A401" s="9"/>
+      <c r="A401" s="7"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -11893,7 +11714,7 @@
       <c r="Z401" s="2"/>
     </row>
     <row r="402">
-      <c r="A402" s="9"/>
+      <c r="A402" s="7"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -11921,7 +11742,7 @@
       <c r="Z402" s="2"/>
     </row>
     <row r="403">
-      <c r="A403" s="9"/>
+      <c r="A403" s="7"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -11949,7 +11770,7 @@
       <c r="Z403" s="2"/>
     </row>
     <row r="404">
-      <c r="A404" s="9"/>
+      <c r="A404" s="7"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -11977,7 +11798,7 @@
       <c r="Z404" s="2"/>
     </row>
     <row r="405">
-      <c r="A405" s="9"/>
+      <c r="A405" s="7"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -12005,7 +11826,7 @@
       <c r="Z405" s="2"/>
     </row>
     <row r="406">
-      <c r="A406" s="9"/>
+      <c r="A406" s="7"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -12033,7 +11854,7 @@
       <c r="Z406" s="2"/>
     </row>
     <row r="407">
-      <c r="A407" s="9"/>
+      <c r="A407" s="7"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -12061,7 +11882,7 @@
       <c r="Z407" s="2"/>
     </row>
     <row r="408">
-      <c r="A408" s="9"/>
+      <c r="A408" s="7"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -12089,7 +11910,7 @@
       <c r="Z408" s="2"/>
     </row>
     <row r="409">
-      <c r="A409" s="9"/>
+      <c r="A409" s="7"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -12117,7 +11938,7 @@
       <c r="Z409" s="2"/>
     </row>
     <row r="410">
-      <c r="A410" s="9"/>
+      <c r="A410" s="7"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -12145,7 +11966,7 @@
       <c r="Z410" s="2"/>
     </row>
     <row r="411">
-      <c r="A411" s="9"/>
+      <c r="A411" s="7"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -12173,7 +11994,7 @@
       <c r="Z411" s="2"/>
     </row>
     <row r="412">
-      <c r="A412" s="9"/>
+      <c r="A412" s="7"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -12201,7 +12022,7 @@
       <c r="Z412" s="2"/>
     </row>
     <row r="413">
-      <c r="A413" s="9"/>
+      <c r="A413" s="7"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -12229,7 +12050,7 @@
       <c r="Z413" s="2"/>
     </row>
     <row r="414">
-      <c r="A414" s="9"/>
+      <c r="A414" s="7"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -12257,7 +12078,7 @@
       <c r="Z414" s="2"/>
     </row>
     <row r="415">
-      <c r="A415" s="9"/>
+      <c r="A415" s="7"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -12285,7 +12106,7 @@
       <c r="Z415" s="2"/>
     </row>
     <row r="416">
-      <c r="A416" s="9"/>
+      <c r="A416" s="7"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -12313,7 +12134,7 @@
       <c r="Z416" s="2"/>
     </row>
     <row r="417">
-      <c r="A417" s="9"/>
+      <c r="A417" s="7"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -12341,7 +12162,7 @@
       <c r="Z417" s="2"/>
     </row>
     <row r="418">
-      <c r="A418" s="9"/>
+      <c r="A418" s="7"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -12369,7 +12190,7 @@
       <c r="Z418" s="2"/>
     </row>
     <row r="419">
-      <c r="A419" s="9"/>
+      <c r="A419" s="7"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -12397,7 +12218,7 @@
       <c r="Z419" s="2"/>
     </row>
     <row r="420">
-      <c r="A420" s="9"/>
+      <c r="A420" s="7"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -12425,7 +12246,7 @@
       <c r="Z420" s="2"/>
     </row>
     <row r="421">
-      <c r="A421" s="9"/>
+      <c r="A421" s="7"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -12453,7 +12274,7 @@
       <c r="Z421" s="2"/>
     </row>
     <row r="422">
-      <c r="A422" s="9"/>
+      <c r="A422" s="7"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -12481,7 +12302,7 @@
       <c r="Z422" s="2"/>
     </row>
     <row r="423">
-      <c r="A423" s="9"/>
+      <c r="A423" s="7"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -12509,7 +12330,7 @@
       <c r="Z423" s="2"/>
     </row>
     <row r="424">
-      <c r="A424" s="9"/>
+      <c r="A424" s="7"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -12537,7 +12358,7 @@
       <c r="Z424" s="2"/>
     </row>
     <row r="425">
-      <c r="A425" s="9"/>
+      <c r="A425" s="7"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -12565,7 +12386,7 @@
       <c r="Z425" s="2"/>
     </row>
     <row r="426">
-      <c r="A426" s="9"/>
+      <c r="A426" s="7"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -12593,7 +12414,7 @@
       <c r="Z426" s="2"/>
     </row>
     <row r="427">
-      <c r="A427" s="9"/>
+      <c r="A427" s="7"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -12621,7 +12442,7 @@
       <c r="Z427" s="2"/>
     </row>
     <row r="428">
-      <c r="A428" s="9"/>
+      <c r="A428" s="7"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -12649,7 +12470,7 @@
       <c r="Z428" s="2"/>
     </row>
     <row r="429">
-      <c r="A429" s="9"/>
+      <c r="A429" s="7"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -12677,7 +12498,7 @@
       <c r="Z429" s="2"/>
     </row>
     <row r="430">
-      <c r="A430" s="9"/>
+      <c r="A430" s="7"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -12705,7 +12526,7 @@
       <c r="Z430" s="2"/>
     </row>
     <row r="431">
-      <c r="A431" s="9"/>
+      <c r="A431" s="7"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -12733,7 +12554,7 @@
       <c r="Z431" s="2"/>
     </row>
     <row r="432">
-      <c r="A432" s="9"/>
+      <c r="A432" s="7"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -12761,7 +12582,7 @@
       <c r="Z432" s="2"/>
     </row>
     <row r="433">
-      <c r="A433" s="9"/>
+      <c r="A433" s="7"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -12789,7 +12610,7 @@
       <c r="Z433" s="2"/>
     </row>
     <row r="434">
-      <c r="A434" s="9"/>
+      <c r="A434" s="7"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -12817,7 +12638,7 @@
       <c r="Z434" s="2"/>
     </row>
     <row r="435">
-      <c r="A435" s="9"/>
+      <c r="A435" s="7"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -12845,7 +12666,7 @@
       <c r="Z435" s="2"/>
     </row>
     <row r="436">
-      <c r="A436" s="9"/>
+      <c r="A436" s="7"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -12873,7 +12694,7 @@
       <c r="Z436" s="2"/>
     </row>
     <row r="437">
-      <c r="A437" s="9"/>
+      <c r="A437" s="7"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -12901,7 +12722,7 @@
       <c r="Z437" s="2"/>
     </row>
     <row r="438">
-      <c r="A438" s="9"/>
+      <c r="A438" s="7"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -12929,7 +12750,7 @@
       <c r="Z438" s="2"/>
     </row>
     <row r="439">
-      <c r="A439" s="9"/>
+      <c r="A439" s="7"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -12957,7 +12778,7 @@
       <c r="Z439" s="2"/>
     </row>
     <row r="440">
-      <c r="A440" s="9"/>
+      <c r="A440" s="7"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -12985,7 +12806,7 @@
       <c r="Z440" s="2"/>
     </row>
     <row r="441">
-      <c r="A441" s="9"/>
+      <c r="A441" s="7"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -13013,7 +12834,7 @@
       <c r="Z441" s="2"/>
     </row>
     <row r="442">
-      <c r="A442" s="9"/>
+      <c r="A442" s="7"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -13041,7 +12862,7 @@
       <c r="Z442" s="2"/>
     </row>
     <row r="443">
-      <c r="A443" s="9"/>
+      <c r="A443" s="7"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -13069,7 +12890,7 @@
       <c r="Z443" s="2"/>
     </row>
     <row r="444">
-      <c r="A444" s="9"/>
+      <c r="A444" s="7"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -13097,7 +12918,7 @@
       <c r="Z444" s="2"/>
     </row>
     <row r="445">
-      <c r="A445" s="9"/>
+      <c r="A445" s="7"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -13125,7 +12946,7 @@
       <c r="Z445" s="2"/>
     </row>
     <row r="446">
-      <c r="A446" s="9"/>
+      <c r="A446" s="7"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -13153,7 +12974,7 @@
       <c r="Z446" s="2"/>
     </row>
     <row r="447">
-      <c r="A447" s="9"/>
+      <c r="A447" s="7"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -13181,7 +13002,7 @@
       <c r="Z447" s="2"/>
     </row>
     <row r="448">
-      <c r="A448" s="9"/>
+      <c r="A448" s="7"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -13209,7 +13030,7 @@
       <c r="Z448" s="2"/>
     </row>
     <row r="449">
-      <c r="A449" s="9"/>
+      <c r="A449" s="7"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -13237,7 +13058,7 @@
       <c r="Z449" s="2"/>
     </row>
     <row r="450">
-      <c r="A450" s="9"/>
+      <c r="A450" s="7"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -13265,7 +13086,7 @@
       <c r="Z450" s="2"/>
     </row>
     <row r="451">
-      <c r="A451" s="9"/>
+      <c r="A451" s="7"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -13293,7 +13114,7 @@
       <c r="Z451" s="2"/>
     </row>
     <row r="452">
-      <c r="A452" s="9"/>
+      <c r="A452" s="7"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -13321,7 +13142,7 @@
       <c r="Z452" s="2"/>
     </row>
     <row r="453">
-      <c r="A453" s="9"/>
+      <c r="A453" s="7"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -13349,7 +13170,7 @@
       <c r="Z453" s="2"/>
     </row>
     <row r="454">
-      <c r="A454" s="9"/>
+      <c r="A454" s="7"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -13377,7 +13198,7 @@
       <c r="Z454" s="2"/>
     </row>
     <row r="455">
-      <c r="A455" s="9"/>
+      <c r="A455" s="7"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -13405,7 +13226,7 @@
       <c r="Z455" s="2"/>
     </row>
     <row r="456">
-      <c r="A456" s="9"/>
+      <c r="A456" s="7"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -13433,7 +13254,7 @@
       <c r="Z456" s="2"/>
     </row>
     <row r="457">
-      <c r="A457" s="9"/>
+      <c r="A457" s="7"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -13461,7 +13282,7 @@
       <c r="Z457" s="2"/>
     </row>
     <row r="458">
-      <c r="A458" s="9"/>
+      <c r="A458" s="7"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -13489,7 +13310,7 @@
       <c r="Z458" s="2"/>
     </row>
     <row r="459">
-      <c r="A459" s="9"/>
+      <c r="A459" s="7"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -13517,7 +13338,7 @@
       <c r="Z459" s="2"/>
     </row>
     <row r="460">
-      <c r="A460" s="9"/>
+      <c r="A460" s="7"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -13545,7 +13366,7 @@
       <c r="Z460" s="2"/>
     </row>
     <row r="461">
-      <c r="A461" s="9"/>
+      <c r="A461" s="7"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -13573,7 +13394,7 @@
       <c r="Z461" s="2"/>
     </row>
     <row r="462">
-      <c r="A462" s="9"/>
+      <c r="A462" s="7"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -13601,7 +13422,7 @@
       <c r="Z462" s="2"/>
     </row>
     <row r="463">
-      <c r="A463" s="9"/>
+      <c r="A463" s="7"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -13629,7 +13450,7 @@
       <c r="Z463" s="2"/>
     </row>
     <row r="464">
-      <c r="A464" s="9"/>
+      <c r="A464" s="7"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -13657,7 +13478,7 @@
       <c r="Z464" s="2"/>
     </row>
     <row r="465">
-      <c r="A465" s="9"/>
+      <c r="A465" s="7"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -13685,7 +13506,7 @@
       <c r="Z465" s="2"/>
     </row>
     <row r="466">
-      <c r="A466" s="9"/>
+      <c r="A466" s="7"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -13713,7 +13534,7 @@
       <c r="Z466" s="2"/>
     </row>
     <row r="467">
-      <c r="A467" s="9"/>
+      <c r="A467" s="7"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -13741,7 +13562,7 @@
       <c r="Z467" s="2"/>
     </row>
     <row r="468">
-      <c r="A468" s="9"/>
+      <c r="A468" s="7"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -13769,7 +13590,7 @@
       <c r="Z468" s="2"/>
     </row>
     <row r="469">
-      <c r="A469" s="9"/>
+      <c r="A469" s="7"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -13797,7 +13618,7 @@
       <c r="Z469" s="2"/>
     </row>
     <row r="470">
-      <c r="A470" s="9"/>
+      <c r="A470" s="7"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -13825,7 +13646,7 @@
       <c r="Z470" s="2"/>
     </row>
     <row r="471">
-      <c r="A471" s="9"/>
+      <c r="A471" s="7"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -13853,7 +13674,7 @@
       <c r="Z471" s="2"/>
     </row>
     <row r="472">
-      <c r="A472" s="9"/>
+      <c r="A472" s="7"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -13881,7 +13702,7 @@
       <c r="Z472" s="2"/>
     </row>
     <row r="473">
-      <c r="A473" s="9"/>
+      <c r="A473" s="7"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -13909,7 +13730,7 @@
       <c r="Z473" s="2"/>
     </row>
     <row r="474">
-      <c r="A474" s="9"/>
+      <c r="A474" s="7"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -13937,7 +13758,7 @@
       <c r="Z474" s="2"/>
     </row>
     <row r="475">
-      <c r="A475" s="9"/>
+      <c r="A475" s="7"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -13965,7 +13786,7 @@
       <c r="Z475" s="2"/>
     </row>
     <row r="476">
-      <c r="A476" s="9"/>
+      <c r="A476" s="7"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -13993,7 +13814,7 @@
       <c r="Z476" s="2"/>
     </row>
     <row r="477">
-      <c r="A477" s="9"/>
+      <c r="A477" s="7"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -14021,7 +13842,7 @@
       <c r="Z477" s="2"/>
     </row>
     <row r="478">
-      <c r="A478" s="9"/>
+      <c r="A478" s="7"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -14049,7 +13870,7 @@
       <c r="Z478" s="2"/>
     </row>
     <row r="479">
-      <c r="A479" s="9"/>
+      <c r="A479" s="7"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -14077,7 +13898,7 @@
       <c r="Z479" s="2"/>
     </row>
     <row r="480">
-      <c r="A480" s="9"/>
+      <c r="A480" s="7"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -14105,7 +13926,7 @@
       <c r="Z480" s="2"/>
     </row>
     <row r="481">
-      <c r="A481" s="9"/>
+      <c r="A481" s="7"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -14133,7 +13954,7 @@
       <c r="Z481" s="2"/>
     </row>
     <row r="482">
-      <c r="A482" s="9"/>
+      <c r="A482" s="7"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -14161,7 +13982,7 @@
       <c r="Z482" s="2"/>
     </row>
     <row r="483">
-      <c r="A483" s="9"/>
+      <c r="A483" s="7"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -14189,7 +14010,7 @@
       <c r="Z483" s="2"/>
     </row>
     <row r="484">
-      <c r="A484" s="9"/>
+      <c r="A484" s="7"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -14217,7 +14038,7 @@
       <c r="Z484" s="2"/>
     </row>
     <row r="485">
-      <c r="A485" s="9"/>
+      <c r="A485" s="7"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -14245,7 +14066,7 @@
       <c r="Z485" s="2"/>
     </row>
     <row r="486">
-      <c r="A486" s="9"/>
+      <c r="A486" s="7"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -14273,7 +14094,7 @@
       <c r="Z486" s="2"/>
     </row>
     <row r="487">
-      <c r="A487" s="9"/>
+      <c r="A487" s="7"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -14301,7 +14122,7 @@
       <c r="Z487" s="2"/>
     </row>
     <row r="488">
-      <c r="A488" s="9"/>
+      <c r="A488" s="7"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -14329,7 +14150,7 @@
       <c r="Z488" s="2"/>
     </row>
     <row r="489">
-      <c r="A489" s="9"/>
+      <c r="A489" s="7"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -14357,7 +14178,7 @@
       <c r="Z489" s="2"/>
     </row>
     <row r="490">
-      <c r="A490" s="9"/>
+      <c r="A490" s="7"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -14385,7 +14206,7 @@
       <c r="Z490" s="2"/>
     </row>
     <row r="491">
-      <c r="A491" s="9"/>
+      <c r="A491" s="7"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -14413,7 +14234,7 @@
       <c r="Z491" s="2"/>
     </row>
     <row r="492">
-      <c r="A492" s="9"/>
+      <c r="A492" s="7"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -14441,7 +14262,7 @@
       <c r="Z492" s="2"/>
     </row>
     <row r="493">
-      <c r="A493" s="9"/>
+      <c r="A493" s="7"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -14469,7 +14290,7 @@
       <c r="Z493" s="2"/>
     </row>
     <row r="494">
-      <c r="A494" s="9"/>
+      <c r="A494" s="7"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -14497,7 +14318,7 @@
       <c r="Z494" s="2"/>
     </row>
     <row r="495">
-      <c r="A495" s="9"/>
+      <c r="A495" s="7"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -14525,7 +14346,7 @@
       <c r="Z495" s="2"/>
     </row>
     <row r="496">
-      <c r="A496" s="9"/>
+      <c r="A496" s="7"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -14553,7 +14374,7 @@
       <c r="Z496" s="2"/>
     </row>
     <row r="497">
-      <c r="A497" s="9"/>
+      <c r="A497" s="7"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -14581,7 +14402,7 @@
       <c r="Z497" s="2"/>
     </row>
     <row r="498">
-      <c r="A498" s="9"/>
+      <c r="A498" s="7"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -14609,7 +14430,7 @@
       <c r="Z498" s="2"/>
     </row>
     <row r="499">
-      <c r="A499" s="9"/>
+      <c r="A499" s="7"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -14637,7 +14458,7 @@
       <c r="Z499" s="2"/>
     </row>
     <row r="500">
-      <c r="A500" s="9"/>
+      <c r="A500" s="7"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -14665,7 +14486,7 @@
       <c r="Z500" s="2"/>
     </row>
     <row r="501">
-      <c r="A501" s="9"/>
+      <c r="A501" s="7"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -14693,7 +14514,7 @@
       <c r="Z501" s="2"/>
     </row>
     <row r="502">
-      <c r="A502" s="9"/>
+      <c r="A502" s="7"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -14721,7 +14542,7 @@
       <c r="Z502" s="2"/>
     </row>
     <row r="503">
-      <c r="A503" s="9"/>
+      <c r="A503" s="7"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -14749,7 +14570,7 @@
       <c r="Z503" s="2"/>
     </row>
     <row r="504">
-      <c r="A504" s="9"/>
+      <c r="A504" s="7"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -14777,7 +14598,7 @@
       <c r="Z504" s="2"/>
     </row>
     <row r="505">
-      <c r="A505" s="9"/>
+      <c r="A505" s="7"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -14805,7 +14626,7 @@
       <c r="Z505" s="2"/>
     </row>
     <row r="506">
-      <c r="A506" s="9"/>
+      <c r="A506" s="7"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -14833,7 +14654,7 @@
       <c r="Z506" s="2"/>
     </row>
     <row r="507">
-      <c r="A507" s="9"/>
+      <c r="A507" s="7"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -14861,7 +14682,7 @@
       <c r="Z507" s="2"/>
     </row>
     <row r="508">
-      <c r="A508" s="9"/>
+      <c r="A508" s="7"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -14889,7 +14710,7 @@
       <c r="Z508" s="2"/>
     </row>
     <row r="509">
-      <c r="A509" s="9"/>
+      <c r="A509" s="7"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -14917,7 +14738,7 @@
       <c r="Z509" s="2"/>
     </row>
     <row r="510">
-      <c r="A510" s="9"/>
+      <c r="A510" s="7"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -14945,7 +14766,7 @@
       <c r="Z510" s="2"/>
     </row>
     <row r="511">
-      <c r="A511" s="9"/>
+      <c r="A511" s="7"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -14973,7 +14794,7 @@
       <c r="Z511" s="2"/>
     </row>
     <row r="512">
-      <c r="A512" s="9"/>
+      <c r="A512" s="7"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -15001,7 +14822,7 @@
       <c r="Z512" s="2"/>
     </row>
     <row r="513">
-      <c r="A513" s="9"/>
+      <c r="A513" s="7"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -15029,7 +14850,7 @@
       <c r="Z513" s="2"/>
     </row>
     <row r="514">
-      <c r="A514" s="9"/>
+      <c r="A514" s="7"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -15057,7 +14878,7 @@
       <c r="Z514" s="2"/>
     </row>
     <row r="515">
-      <c r="A515" s="9"/>
+      <c r="A515" s="7"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -15085,7 +14906,7 @@
       <c r="Z515" s="2"/>
     </row>
     <row r="516">
-      <c r="A516" s="9"/>
+      <c r="A516" s="7"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -15113,7 +14934,7 @@
       <c r="Z516" s="2"/>
     </row>
     <row r="517">
-      <c r="A517" s="9"/>
+      <c r="A517" s="7"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -15141,7 +14962,7 @@
       <c r="Z517" s="2"/>
     </row>
     <row r="518">
-      <c r="A518" s="9"/>
+      <c r="A518" s="7"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -15169,7 +14990,7 @@
       <c r="Z518" s="2"/>
     </row>
     <row r="519">
-      <c r="A519" s="9"/>
+      <c r="A519" s="7"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -15197,7 +15018,7 @@
       <c r="Z519" s="2"/>
     </row>
     <row r="520">
-      <c r="A520" s="9"/>
+      <c r="A520" s="7"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -15225,7 +15046,7 @@
       <c r="Z520" s="2"/>
     </row>
     <row r="521">
-      <c r="A521" s="9"/>
+      <c r="A521" s="7"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -15253,7 +15074,7 @@
       <c r="Z521" s="2"/>
     </row>
     <row r="522">
-      <c r="A522" s="9"/>
+      <c r="A522" s="7"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -15281,7 +15102,7 @@
       <c r="Z522" s="2"/>
     </row>
     <row r="523">
-      <c r="A523" s="9"/>
+      <c r="A523" s="7"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -15309,7 +15130,7 @@
       <c r="Z523" s="2"/>
     </row>
     <row r="524">
-      <c r="A524" s="9"/>
+      <c r="A524" s="7"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -15337,7 +15158,7 @@
       <c r="Z524" s="2"/>
     </row>
     <row r="525">
-      <c r="A525" s="9"/>
+      <c r="A525" s="7"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -15365,7 +15186,7 @@
       <c r="Z525" s="2"/>
     </row>
     <row r="526">
-      <c r="A526" s="9"/>
+      <c r="A526" s="7"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -15393,7 +15214,7 @@
       <c r="Z526" s="2"/>
     </row>
     <row r="527">
-      <c r="A527" s="9"/>
+      <c r="A527" s="7"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -15421,7 +15242,7 @@
       <c r="Z527" s="2"/>
     </row>
     <row r="528">
-      <c r="A528" s="9"/>
+      <c r="A528" s="7"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -15449,7 +15270,7 @@
       <c r="Z528" s="2"/>
     </row>
     <row r="529">
-      <c r="A529" s="9"/>
+      <c r="A529" s="7"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -15477,7 +15298,7 @@
       <c r="Z529" s="2"/>
     </row>
     <row r="530">
-      <c r="A530" s="9"/>
+      <c r="A530" s="7"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -15505,7 +15326,7 @@
       <c r="Z530" s="2"/>
     </row>
     <row r="531">
-      <c r="A531" s="9"/>
+      <c r="A531" s="7"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -15533,7 +15354,7 @@
       <c r="Z531" s="2"/>
     </row>
     <row r="532">
-      <c r="A532" s="9"/>
+      <c r="A532" s="7"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -15561,7 +15382,7 @@
       <c r="Z532" s="2"/>
     </row>
     <row r="533">
-      <c r="A533" s="9"/>
+      <c r="A533" s="7"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -15589,7 +15410,7 @@
       <c r="Z533" s="2"/>
     </row>
     <row r="534">
-      <c r="A534" s="9"/>
+      <c r="A534" s="7"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -15617,7 +15438,7 @@
       <c r="Z534" s="2"/>
     </row>
     <row r="535">
-      <c r="A535" s="9"/>
+      <c r="A535" s="7"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -15645,7 +15466,7 @@
       <c r="Z535" s="2"/>
     </row>
     <row r="536">
-      <c r="A536" s="9"/>
+      <c r="A536" s="7"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -15673,7 +15494,7 @@
       <c r="Z536" s="2"/>
     </row>
     <row r="537">
-      <c r="A537" s="9"/>
+      <c r="A537" s="7"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -15701,7 +15522,7 @@
       <c r="Z537" s="2"/>
     </row>
     <row r="538">
-      <c r="A538" s="9"/>
+      <c r="A538" s="7"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -15729,7 +15550,7 @@
       <c r="Z538" s="2"/>
     </row>
     <row r="539">
-      <c r="A539" s="9"/>
+      <c r="A539" s="7"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -15757,7 +15578,7 @@
       <c r="Z539" s="2"/>
     </row>
     <row r="540">
-      <c r="A540" s="9"/>
+      <c r="A540" s="7"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -15785,7 +15606,7 @@
       <c r="Z540" s="2"/>
     </row>
     <row r="541">
-      <c r="A541" s="9"/>
+      <c r="A541" s="7"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -15813,7 +15634,7 @@
       <c r="Z541" s="2"/>
     </row>
     <row r="542">
-      <c r="A542" s="9"/>
+      <c r="A542" s="7"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -15841,7 +15662,7 @@
       <c r="Z542" s="2"/>
     </row>
     <row r="543">
-      <c r="A543" s="9"/>
+      <c r="A543" s="7"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -15869,7 +15690,7 @@
       <c r="Z543" s="2"/>
     </row>
     <row r="544">
-      <c r="A544" s="9"/>
+      <c r="A544" s="7"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -15897,7 +15718,7 @@
       <c r="Z544" s="2"/>
     </row>
     <row r="545">
-      <c r="A545" s="9"/>
+      <c r="A545" s="7"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -15925,7 +15746,7 @@
       <c r="Z545" s="2"/>
     </row>
     <row r="546">
-      <c r="A546" s="9"/>
+      <c r="A546" s="7"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -15953,7 +15774,7 @@
       <c r="Z546" s="2"/>
     </row>
     <row r="547">
-      <c r="A547" s="9"/>
+      <c r="A547" s="7"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -15981,7 +15802,7 @@
       <c r="Z547" s="2"/>
     </row>
     <row r="548">
-      <c r="A548" s="9"/>
+      <c r="A548" s="7"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -16009,7 +15830,7 @@
       <c r="Z548" s="2"/>
     </row>
     <row r="549">
-      <c r="A549" s="9"/>
+      <c r="A549" s="7"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -16037,7 +15858,7 @@
       <c r="Z549" s="2"/>
     </row>
     <row r="550">
-      <c r="A550" s="9"/>
+      <c r="A550" s="7"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -16065,7 +15886,7 @@
       <c r="Z550" s="2"/>
     </row>
     <row r="551">
-      <c r="A551" s="9"/>
+      <c r="A551" s="7"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -16093,7 +15914,7 @@
       <c r="Z551" s="2"/>
     </row>
     <row r="552">
-      <c r="A552" s="9"/>
+      <c r="A552" s="7"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -16121,7 +15942,7 @@
       <c r="Z552" s="2"/>
     </row>
     <row r="553">
-      <c r="A553" s="9"/>
+      <c r="A553" s="7"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -16149,7 +15970,7 @@
       <c r="Z553" s="2"/>
     </row>
     <row r="554">
-      <c r="A554" s="9"/>
+      <c r="A554" s="7"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -16177,7 +15998,7 @@
       <c r="Z554" s="2"/>
     </row>
     <row r="555">
-      <c r="A555" s="9"/>
+      <c r="A555" s="7"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -16205,7 +16026,7 @@
       <c r="Z555" s="2"/>
     </row>
     <row r="556">
-      <c r="A556" s="9"/>
+      <c r="A556" s="7"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -16233,7 +16054,7 @@
       <c r="Z556" s="2"/>
     </row>
     <row r="557">
-      <c r="A557" s="9"/>
+      <c r="A557" s="7"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -16261,7 +16082,7 @@
       <c r="Z557" s="2"/>
     </row>
     <row r="558">
-      <c r="A558" s="9"/>
+      <c r="A558" s="7"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -16289,7 +16110,7 @@
       <c r="Z558" s="2"/>
     </row>
     <row r="559">
-      <c r="A559" s="9"/>
+      <c r="A559" s="7"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -16317,7 +16138,7 @@
       <c r="Z559" s="2"/>
     </row>
     <row r="560">
-      <c r="A560" s="9"/>
+      <c r="A560" s="7"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -16345,7 +16166,7 @@
       <c r="Z560" s="2"/>
     </row>
     <row r="561">
-      <c r="A561" s="9"/>
+      <c r="A561" s="7"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -16373,7 +16194,7 @@
       <c r="Z561" s="2"/>
     </row>
     <row r="562">
-      <c r="A562" s="9"/>
+      <c r="A562" s="7"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -16401,7 +16222,7 @@
       <c r="Z562" s="2"/>
     </row>
     <row r="563">
-      <c r="A563" s="9"/>
+      <c r="A563" s="7"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -16429,7 +16250,7 @@
       <c r="Z563" s="2"/>
     </row>
     <row r="564">
-      <c r="A564" s="9"/>
+      <c r="A564" s="7"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -16457,7 +16278,7 @@
       <c r="Z564" s="2"/>
     </row>
     <row r="565">
-      <c r="A565" s="9"/>
+      <c r="A565" s="7"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -16485,7 +16306,7 @@
       <c r="Z565" s="2"/>
     </row>
     <row r="566">
-      <c r="A566" s="9"/>
+      <c r="A566" s="7"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -16513,7 +16334,7 @@
       <c r="Z566" s="2"/>
     </row>
     <row r="567">
-      <c r="A567" s="9"/>
+      <c r="A567" s="7"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -16541,7 +16362,7 @@
       <c r="Z567" s="2"/>
     </row>
     <row r="568">
-      <c r="A568" s="9"/>
+      <c r="A568" s="7"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -16569,7 +16390,7 @@
       <c r="Z568" s="2"/>
     </row>
     <row r="569">
-      <c r="A569" s="9"/>
+      <c r="A569" s="7"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -16597,7 +16418,7 @@
       <c r="Z569" s="2"/>
     </row>
     <row r="570">
-      <c r="A570" s="9"/>
+      <c r="A570" s="7"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -16625,7 +16446,7 @@
       <c r="Z570" s="2"/>
     </row>
     <row r="571">
-      <c r="A571" s="9"/>
+      <c r="A571" s="7"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -16653,7 +16474,7 @@
       <c r="Z571" s="2"/>
     </row>
     <row r="572">
-      <c r="A572" s="9"/>
+      <c r="A572" s="7"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -16681,7 +16502,7 @@
       <c r="Z572" s="2"/>
     </row>
     <row r="573">
-      <c r="A573" s="9"/>
+      <c r="A573" s="7"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -16709,7 +16530,7 @@
       <c r="Z573" s="2"/>
     </row>
     <row r="574">
-      <c r="A574" s="9"/>
+      <c r="A574" s="7"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -16737,7 +16558,7 @@
       <c r="Z574" s="2"/>
     </row>
     <row r="575">
-      <c r="A575" s="9"/>
+      <c r="A575" s="7"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -16765,7 +16586,7 @@
       <c r="Z575" s="2"/>
     </row>
     <row r="576">
-      <c r="A576" s="9"/>
+      <c r="A576" s="7"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -16793,7 +16614,7 @@
       <c r="Z576" s="2"/>
     </row>
     <row r="577">
-      <c r="A577" s="9"/>
+      <c r="A577" s="7"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -16821,7 +16642,7 @@
       <c r="Z577" s="2"/>
     </row>
     <row r="578">
-      <c r="A578" s="9"/>
+      <c r="A578" s="7"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -16849,7 +16670,7 @@
       <c r="Z578" s="2"/>
     </row>
     <row r="579">
-      <c r="A579" s="9"/>
+      <c r="A579" s="7"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -16877,7 +16698,7 @@
       <c r="Z579" s="2"/>
     </row>
     <row r="580">
-      <c r="A580" s="9"/>
+      <c r="A580" s="7"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -16905,7 +16726,7 @@
       <c r="Z580" s="2"/>
     </row>
     <row r="581">
-      <c r="A581" s="9"/>
+      <c r="A581" s="7"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -16933,7 +16754,7 @@
       <c r="Z581" s="2"/>
     </row>
     <row r="582">
-      <c r="A582" s="9"/>
+      <c r="A582" s="7"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -16961,7 +16782,7 @@
       <c r="Z582" s="2"/>
     </row>
     <row r="583">
-      <c r="A583" s="9"/>
+      <c r="A583" s="7"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -16989,7 +16810,7 @@
       <c r="Z583" s="2"/>
     </row>
     <row r="584">
-      <c r="A584" s="9"/>
+      <c r="A584" s="7"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -17017,7 +16838,7 @@
       <c r="Z584" s="2"/>
     </row>
     <row r="585">
-      <c r="A585" s="9"/>
+      <c r="A585" s="7"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -17045,7 +16866,7 @@
       <c r="Z585" s="2"/>
     </row>
     <row r="586">
-      <c r="A586" s="9"/>
+      <c r="A586" s="7"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -17073,7 +16894,7 @@
       <c r="Z586" s="2"/>
     </row>
     <row r="587">
-      <c r="A587" s="9"/>
+      <c r="A587" s="7"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -17101,7 +16922,7 @@
       <c r="Z587" s="2"/>
     </row>
     <row r="588">
-      <c r="A588" s="9"/>
+      <c r="A588" s="7"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -17129,7 +16950,7 @@
       <c r="Z588" s="2"/>
     </row>
     <row r="589">
-      <c r="A589" s="9"/>
+      <c r="A589" s="7"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -17157,7 +16978,7 @@
       <c r="Z589" s="2"/>
     </row>
     <row r="590">
-      <c r="A590" s="9"/>
+      <c r="A590" s="7"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -17185,7 +17006,7 @@
       <c r="Z590" s="2"/>
     </row>
     <row r="591">
-      <c r="A591" s="9"/>
+      <c r="A591" s="7"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -17213,7 +17034,7 @@
       <c r="Z591" s="2"/>
     </row>
     <row r="592">
-      <c r="A592" s="9"/>
+      <c r="A592" s="7"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -17241,7 +17062,7 @@
       <c r="Z592" s="2"/>
     </row>
     <row r="593">
-      <c r="A593" s="9"/>
+      <c r="A593" s="7"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -17269,7 +17090,7 @@
       <c r="Z593" s="2"/>
     </row>
     <row r="594">
-      <c r="A594" s="9"/>
+      <c r="A594" s="7"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -17297,7 +17118,7 @@
       <c r="Z594" s="2"/>
     </row>
     <row r="595">
-      <c r="A595" s="9"/>
+      <c r="A595" s="7"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -17325,7 +17146,7 @@
       <c r="Z595" s="2"/>
     </row>
     <row r="596">
-      <c r="A596" s="9"/>
+      <c r="A596" s="7"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -17353,7 +17174,7 @@
       <c r="Z596" s="2"/>
     </row>
     <row r="597">
-      <c r="A597" s="9"/>
+      <c r="A597" s="7"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -17381,7 +17202,7 @@
       <c r="Z597" s="2"/>
     </row>
     <row r="598">
-      <c r="A598" s="9"/>
+      <c r="A598" s="7"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -17409,7 +17230,7 @@
       <c r="Z598" s="2"/>
     </row>
     <row r="599">
-      <c r="A599" s="9"/>
+      <c r="A599" s="7"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -17437,7 +17258,7 @@
       <c r="Z599" s="2"/>
     </row>
     <row r="600">
-      <c r="A600" s="9"/>
+      <c r="A600" s="7"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -17465,7 +17286,7 @@
       <c r="Z600" s="2"/>
     </row>
     <row r="601">
-      <c r="A601" s="9"/>
+      <c r="A601" s="7"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -17493,7 +17314,7 @@
       <c r="Z601" s="2"/>
     </row>
     <row r="602">
-      <c r="A602" s="9"/>
+      <c r="A602" s="7"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -17521,7 +17342,7 @@
       <c r="Z602" s="2"/>
     </row>
     <row r="603">
-      <c r="A603" s="9"/>
+      <c r="A603" s="7"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -17549,7 +17370,7 @@
       <c r="Z603" s="2"/>
     </row>
     <row r="604">
-      <c r="A604" s="9"/>
+      <c r="A604" s="7"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -17577,7 +17398,7 @@
       <c r="Z604" s="2"/>
     </row>
     <row r="605">
-      <c r="A605" s="9"/>
+      <c r="A605" s="7"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -17605,7 +17426,7 @@
       <c r="Z605" s="2"/>
     </row>
     <row r="606">
-      <c r="A606" s="9"/>
+      <c r="A606" s="7"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -17633,7 +17454,7 @@
       <c r="Z606" s="2"/>
     </row>
     <row r="607">
-      <c r="A607" s="9"/>
+      <c r="A607" s="7"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -17661,7 +17482,7 @@
       <c r="Z607" s="2"/>
     </row>
     <row r="608">
-      <c r="A608" s="9"/>
+      <c r="A608" s="7"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -17689,7 +17510,7 @@
       <c r="Z608" s="2"/>
     </row>
     <row r="609">
-      <c r="A609" s="9"/>
+      <c r="A609" s="7"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -17717,7 +17538,7 @@
       <c r="Z609" s="2"/>
     </row>
     <row r="610">
-      <c r="A610" s="9"/>
+      <c r="A610" s="7"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -17745,7 +17566,7 @@
       <c r="Z610" s="2"/>
     </row>
     <row r="611">
-      <c r="A611" s="9"/>
+      <c r="A611" s="7"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -17773,7 +17594,7 @@
       <c r="Z611" s="2"/>
     </row>
     <row r="612">
-      <c r="A612" s="9"/>
+      <c r="A612" s="7"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -17801,7 +17622,7 @@
       <c r="Z612" s="2"/>
     </row>
     <row r="613">
-      <c r="A613" s="9"/>
+      <c r="A613" s="7"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -17829,7 +17650,7 @@
       <c r="Z613" s="2"/>
     </row>
     <row r="614">
-      <c r="A614" s="9"/>
+      <c r="A614" s="7"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -17857,7 +17678,7 @@
       <c r="Z614" s="2"/>
     </row>
     <row r="615">
-      <c r="A615" s="9"/>
+      <c r="A615" s="7"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -17885,7 +17706,7 @@
       <c r="Z615" s="2"/>
     </row>
     <row r="616">
-      <c r="A616" s="9"/>
+      <c r="A616" s="7"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -17913,7 +17734,7 @@
       <c r="Z616" s="2"/>
     </row>
     <row r="617">
-      <c r="A617" s="9"/>
+      <c r="A617" s="7"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -17941,7 +17762,7 @@
       <c r="Z617" s="2"/>
     </row>
     <row r="618">
-      <c r="A618" s="9"/>
+      <c r="A618" s="7"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -17969,7 +17790,7 @@
       <c r="Z618" s="2"/>
     </row>
     <row r="619">
-      <c r="A619" s="9"/>
+      <c r="A619" s="7"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -17997,7 +17818,7 @@
       <c r="Z619" s="2"/>
     </row>
     <row r="620">
-      <c r="A620" s="9"/>
+      <c r="A620" s="7"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -18025,7 +17846,7 @@
       <c r="Z620" s="2"/>
     </row>
     <row r="621">
-      <c r="A621" s="9"/>
+      <c r="A621" s="7"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -18053,7 +17874,7 @@
       <c r="Z621" s="2"/>
     </row>
     <row r="622">
-      <c r="A622" s="9"/>
+      <c r="A622" s="7"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -18081,7 +17902,7 @@
       <c r="Z622" s="2"/>
     </row>
     <row r="623">
-      <c r="A623" s="9"/>
+      <c r="A623" s="7"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -18109,7 +17930,7 @@
       <c r="Z623" s="2"/>
     </row>
     <row r="624">
-      <c r="A624" s="9"/>
+      <c r="A624" s="7"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -18137,7 +17958,7 @@
       <c r="Z624" s="2"/>
     </row>
     <row r="625">
-      <c r="A625" s="9"/>
+      <c r="A625" s="7"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -18165,7 +17986,7 @@
       <c r="Z625" s="2"/>
     </row>
     <row r="626">
-      <c r="A626" s="9"/>
+      <c r="A626" s="7"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -18193,7 +18014,7 @@
       <c r="Z626" s="2"/>
     </row>
     <row r="627">
-      <c r="A627" s="9"/>
+      <c r="A627" s="7"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -18221,7 +18042,7 @@
       <c r="Z627" s="2"/>
     </row>
     <row r="628">
-      <c r="A628" s="9"/>
+      <c r="A628" s="7"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -18249,7 +18070,7 @@
       <c r="Z628" s="2"/>
     </row>
     <row r="629">
-      <c r="A629" s="9"/>
+      <c r="A629" s="7"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -18277,7 +18098,7 @@
       <c r="Z629" s="2"/>
     </row>
     <row r="630">
-      <c r="A630" s="9"/>
+      <c r="A630" s="7"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -18305,7 +18126,7 @@
       <c r="Z630" s="2"/>
     </row>
     <row r="631">
-      <c r="A631" s="9"/>
+      <c r="A631" s="7"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -18333,7 +18154,7 @@
       <c r="Z631" s="2"/>
     </row>
     <row r="632">
-      <c r="A632" s="9"/>
+      <c r="A632" s="7"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -18361,7 +18182,7 @@
       <c r="Z632" s="2"/>
     </row>
     <row r="633">
-      <c r="A633" s="9"/>
+      <c r="A633" s="7"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -18389,7 +18210,7 @@
       <c r="Z633" s="2"/>
     </row>
     <row r="634">
-      <c r="A634" s="9"/>
+      <c r="A634" s="7"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -18417,7 +18238,7 @@
       <c r="Z634" s="2"/>
     </row>
     <row r="635">
-      <c r="A635" s="9"/>
+      <c r="A635" s="7"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -18445,7 +18266,7 @@
       <c r="Z635" s="2"/>
     </row>
     <row r="636">
-      <c r="A636" s="9"/>
+      <c r="A636" s="7"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -18473,7 +18294,7 @@
       <c r="Z636" s="2"/>
     </row>
     <row r="637">
-      <c r="A637" s="9"/>
+      <c r="A637" s="7"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -18501,7 +18322,7 @@
       <c r="Z637" s="2"/>
     </row>
     <row r="638">
-      <c r="A638" s="9"/>
+      <c r="A638" s="7"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -18529,7 +18350,7 @@
       <c r="Z638" s="2"/>
     </row>
     <row r="639">
-      <c r="A639" s="9"/>
+      <c r="A639" s="7"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -18557,7 +18378,7 @@
       <c r="Z639" s="2"/>
     </row>
     <row r="640">
-      <c r="A640" s="9"/>
+      <c r="A640" s="7"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -18585,7 +18406,7 @@
       <c r="Z640" s="2"/>
     </row>
     <row r="641">
-      <c r="A641" s="9"/>
+      <c r="A641" s="7"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -18613,7 +18434,7 @@
       <c r="Z641" s="2"/>
     </row>
     <row r="642">
-      <c r="A642" s="9"/>
+      <c r="A642" s="7"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -18641,7 +18462,7 @@
       <c r="Z642" s="2"/>
     </row>
     <row r="643">
-      <c r="A643" s="9"/>
+      <c r="A643" s="7"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -18669,7 +18490,7 @@
       <c r="Z643" s="2"/>
     </row>
     <row r="644">
-      <c r="A644" s="9"/>
+      <c r="A644" s="7"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -18697,7 +18518,7 @@
       <c r="Z644" s="2"/>
     </row>
     <row r="645">
-      <c r="A645" s="9"/>
+      <c r="A645" s="7"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -18725,7 +18546,7 @@
       <c r="Z645" s="2"/>
     </row>
     <row r="646">
-      <c r="A646" s="9"/>
+      <c r="A646" s="7"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -18753,7 +18574,7 @@
       <c r="Z646" s="2"/>
     </row>
     <row r="647">
-      <c r="A647" s="9"/>
+      <c r="A647" s="7"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -18781,7 +18602,7 @@
       <c r="Z647" s="2"/>
     </row>
     <row r="648">
-      <c r="A648" s="9"/>
+      <c r="A648" s="7"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -18809,7 +18630,7 @@
       <c r="Z648" s="2"/>
     </row>
     <row r="649">
-      <c r="A649" s="9"/>
+      <c r="A649" s="7"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -18837,7 +18658,7 @@
       <c r="Z649" s="2"/>
     </row>
     <row r="650">
-      <c r="A650" s="9"/>
+      <c r="A650" s="7"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -18865,7 +18686,7 @@
       <c r="Z650" s="2"/>
     </row>
     <row r="651">
-      <c r="A651" s="9"/>
+      <c r="A651" s="7"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -18893,7 +18714,7 @@
       <c r="Z651" s="2"/>
     </row>
     <row r="652">
-      <c r="A652" s="9"/>
+      <c r="A652" s="7"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -18921,7 +18742,7 @@
       <c r="Z652" s="2"/>
     </row>
     <row r="653">
-      <c r="A653" s="9"/>
+      <c r="A653" s="7"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -18949,7 +18770,7 @@
       <c r="Z653" s="2"/>
     </row>
     <row r="654">
-      <c r="A654" s="9"/>
+      <c r="A654" s="7"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -18977,7 +18798,7 @@
       <c r="Z654" s="2"/>
     </row>
     <row r="655">
-      <c r="A655" s="9"/>
+      <c r="A655" s="7"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -19005,7 +18826,7 @@
       <c r="Z655" s="2"/>
     </row>
     <row r="656">
-      <c r="A656" s="9"/>
+      <c r="A656" s="7"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -19033,7 +18854,7 @@
       <c r="Z656" s="2"/>
     </row>
     <row r="657">
-      <c r="A657" s="9"/>
+      <c r="A657" s="7"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -19061,7 +18882,7 @@
       <c r="Z657" s="2"/>
     </row>
     <row r="658">
-      <c r="A658" s="9"/>
+      <c r="A658" s="7"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -19089,7 +18910,7 @@
       <c r="Z658" s="2"/>
     </row>
     <row r="659">
-      <c r="A659" s="9"/>
+      <c r="A659" s="7"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -19117,7 +18938,7 @@
       <c r="Z659" s="2"/>
     </row>
     <row r="660">
-      <c r="A660" s="9"/>
+      <c r="A660" s="7"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -19145,7 +18966,7 @@
       <c r="Z660" s="2"/>
     </row>
     <row r="661">
-      <c r="A661" s="9"/>
+      <c r="A661" s="7"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -19173,7 +18994,7 @@
       <c r="Z661" s="2"/>
     </row>
     <row r="662">
-      <c r="A662" s="9"/>
+      <c r="A662" s="7"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -19201,7 +19022,7 @@
       <c r="Z662" s="2"/>
     </row>
     <row r="663">
-      <c r="A663" s="9"/>
+      <c r="A663" s="7"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -19229,7 +19050,7 @@
       <c r="Z663" s="2"/>
     </row>
     <row r="664">
-      <c r="A664" s="9"/>
+      <c r="A664" s="7"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -19257,7 +19078,7 @@
       <c r="Z664" s="2"/>
     </row>
     <row r="665">
-      <c r="A665" s="9"/>
+      <c r="A665" s="7"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -19285,7 +19106,7 @@
       <c r="Z665" s="2"/>
     </row>
     <row r="666">
-      <c r="A666" s="9"/>
+      <c r="A666" s="7"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -19313,7 +19134,7 @@
       <c r="Z666" s="2"/>
     </row>
     <row r="667">
-      <c r="A667" s="9"/>
+      <c r="A667" s="7"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -19341,7 +19162,7 @@
       <c r="Z667" s="2"/>
     </row>
     <row r="668">
-      <c r="A668" s="9"/>
+      <c r="A668" s="7"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -19369,7 +19190,7 @@
       <c r="Z668" s="2"/>
     </row>
     <row r="669">
-      <c r="A669" s="9"/>
+      <c r="A669" s="7"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -19397,7 +19218,7 @@
       <c r="Z669" s="2"/>
     </row>
     <row r="670">
-      <c r="A670" s="9"/>
+      <c r="A670" s="7"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -19425,7 +19246,7 @@
       <c r="Z670" s="2"/>
     </row>
     <row r="671">
-      <c r="A671" s="9"/>
+      <c r="A671" s="7"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -19453,7 +19274,7 @@
       <c r="Z671" s="2"/>
     </row>
     <row r="672">
-      <c r="A672" s="9"/>
+      <c r="A672" s="7"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -19481,7 +19302,7 @@
       <c r="Z672" s="2"/>
     </row>
     <row r="673">
-      <c r="A673" s="9"/>
+      <c r="A673" s="7"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -19509,7 +19330,7 @@
       <c r="Z673" s="2"/>
     </row>
     <row r="674">
-      <c r="A674" s="9"/>
+      <c r="A674" s="7"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -19537,7 +19358,7 @@
       <c r="Z674" s="2"/>
     </row>
     <row r="675">
-      <c r="A675" s="9"/>
+      <c r="A675" s="7"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -19565,7 +19386,7 @@
       <c r="Z675" s="2"/>
     </row>
     <row r="676">
-      <c r="A676" s="9"/>
+      <c r="A676" s="7"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -19593,7 +19414,7 @@
       <c r="Z676" s="2"/>
     </row>
     <row r="677">
-      <c r="A677" s="9"/>
+      <c r="A677" s="7"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -19621,7 +19442,7 @@
       <c r="Z677" s="2"/>
     </row>
     <row r="678">
-      <c r="A678" s="9"/>
+      <c r="A678" s="7"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -19649,7 +19470,7 @@
       <c r="Z678" s="2"/>
     </row>
     <row r="679">
-      <c r="A679" s="9"/>
+      <c r="A679" s="7"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -19677,7 +19498,7 @@
       <c r="Z679" s="2"/>
     </row>
     <row r="680">
-      <c r="A680" s="9"/>
+      <c r="A680" s="7"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -19705,7 +19526,7 @@
       <c r="Z680" s="2"/>
     </row>
     <row r="681">
-      <c r="A681" s="9"/>
+      <c r="A681" s="7"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -19733,7 +19554,7 @@
       <c r="Z681" s="2"/>
     </row>
     <row r="682">
-      <c r="A682" s="9"/>
+      <c r="A682" s="7"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -19761,7 +19582,7 @@
       <c r="Z682" s="2"/>
     </row>
     <row r="683">
-      <c r="A683" s="9"/>
+      <c r="A683" s="7"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -19789,7 +19610,7 @@
       <c r="Z683" s="2"/>
     </row>
     <row r="684">
-      <c r="A684" s="9"/>
+      <c r="A684" s="7"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -19817,7 +19638,7 @@
       <c r="Z684" s="2"/>
     </row>
     <row r="685">
-      <c r="A685" s="9"/>
+      <c r="A685" s="7"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -19845,7 +19666,7 @@
       <c r="Z685" s="2"/>
     </row>
     <row r="686">
-      <c r="A686" s="9"/>
+      <c r="A686" s="7"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -19873,7 +19694,7 @@
       <c r="Z686" s="2"/>
     </row>
     <row r="687">
-      <c r="A687" s="9"/>
+      <c r="A687" s="7"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -19901,7 +19722,7 @@
       <c r="Z687" s="2"/>
     </row>
     <row r="688">
-      <c r="A688" s="9"/>
+      <c r="A688" s="7"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -19929,7 +19750,7 @@
       <c r="Z688" s="2"/>
     </row>
     <row r="689">
-      <c r="A689" s="9"/>
+      <c r="A689" s="7"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -19957,7 +19778,7 @@
       <c r="Z689" s="2"/>
     </row>
     <row r="690">
-      <c r="A690" s="9"/>
+      <c r="A690" s="7"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -19985,7 +19806,7 @@
       <c r="Z690" s="2"/>
     </row>
     <row r="691">
-      <c r="A691" s="9"/>
+      <c r="A691" s="7"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -20013,7 +19834,7 @@
       <c r="Z691" s="2"/>
     </row>
     <row r="692">
-      <c r="A692" s="9"/>
+      <c r="A692" s="7"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -20041,7 +19862,7 @@
       <c r="Z692" s="2"/>
     </row>
     <row r="693">
-      <c r="A693" s="9"/>
+      <c r="A693" s="7"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -20069,7 +19890,7 @@
       <c r="Z693" s="2"/>
     </row>
     <row r="694">
-      <c r="A694" s="9"/>
+      <c r="A694" s="7"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -20097,7 +19918,7 @@
       <c r="Z694" s="2"/>
     </row>
     <row r="695">
-      <c r="A695" s="9"/>
+      <c r="A695" s="7"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -20125,7 +19946,7 @@
       <c r="Z695" s="2"/>
     </row>
     <row r="696">
-      <c r="A696" s="9"/>
+      <c r="A696" s="7"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -20153,7 +19974,7 @@
       <c r="Z696" s="2"/>
     </row>
     <row r="697">
-      <c r="A697" s="9"/>
+      <c r="A697" s="7"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -20181,7 +20002,7 @@
       <c r="Z697" s="2"/>
     </row>
     <row r="698">
-      <c r="A698" s="9"/>
+      <c r="A698" s="7"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -20209,7 +20030,7 @@
       <c r="Z698" s="2"/>
     </row>
     <row r="699">
-      <c r="A699" s="9"/>
+      <c r="A699" s="7"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -20237,7 +20058,7 @@
       <c r="Z699" s="2"/>
     </row>
     <row r="700">
-      <c r="A700" s="9"/>
+      <c r="A700" s="7"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -20265,7 +20086,7 @@
       <c r="Z700" s="2"/>
     </row>
     <row r="701">
-      <c r="A701" s="9"/>
+      <c r="A701" s="7"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -20293,7 +20114,7 @@
       <c r="Z701" s="2"/>
     </row>
     <row r="702">
-      <c r="A702" s="9"/>
+      <c r="A702" s="7"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -20321,7 +20142,7 @@
       <c r="Z702" s="2"/>
     </row>
     <row r="703">
-      <c r="A703" s="9"/>
+      <c r="A703" s="7"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -20349,7 +20170,7 @@
       <c r="Z703" s="2"/>
     </row>
     <row r="704">
-      <c r="A704" s="9"/>
+      <c r="A704" s="7"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -20377,7 +20198,7 @@
       <c r="Z704" s="2"/>
     </row>
     <row r="705">
-      <c r="A705" s="9"/>
+      <c r="A705" s="7"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -20405,7 +20226,7 @@
       <c r="Z705" s="2"/>
     </row>
     <row r="706">
-      <c r="A706" s="9"/>
+      <c r="A706" s="7"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -20433,7 +20254,7 @@
       <c r="Z706" s="2"/>
     </row>
     <row r="707">
-      <c r="A707" s="9"/>
+      <c r="A707" s="7"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -20461,7 +20282,7 @@
       <c r="Z707" s="2"/>
     </row>
     <row r="708">
-      <c r="A708" s="9"/>
+      <c r="A708" s="7"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -20489,7 +20310,7 @@
       <c r="Z708" s="2"/>
     </row>
     <row r="709">
-      <c r="A709" s="9"/>
+      <c r="A709" s="7"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -20517,7 +20338,7 @@
       <c r="Z709" s="2"/>
     </row>
     <row r="710">
-      <c r="A710" s="9"/>
+      <c r="A710" s="7"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -20545,7 +20366,7 @@
       <c r="Z710" s="2"/>
     </row>
     <row r="711">
-      <c r="A711" s="9"/>
+      <c r="A711" s="7"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -20573,7 +20394,7 @@
       <c r="Z711" s="2"/>
     </row>
     <row r="712">
-      <c r="A712" s="9"/>
+      <c r="A712" s="7"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -20601,7 +20422,7 @@
       <c r="Z712" s="2"/>
     </row>
     <row r="713">
-      <c r="A713" s="9"/>
+      <c r="A713" s="7"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -20629,7 +20450,7 @@
       <c r="Z713" s="2"/>
     </row>
     <row r="714">
-      <c r="A714" s="9"/>
+      <c r="A714" s="7"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -20657,7 +20478,7 @@
       <c r="Z714" s="2"/>
     </row>
     <row r="715">
-      <c r="A715" s="9"/>
+      <c r="A715" s="7"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -20685,7 +20506,7 @@
       <c r="Z715" s="2"/>
     </row>
     <row r="716">
-      <c r="A716" s="9"/>
+      <c r="A716" s="7"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -20713,7 +20534,7 @@
       <c r="Z716" s="2"/>
     </row>
     <row r="717">
-      <c r="A717" s="9"/>
+      <c r="A717" s="7"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -20741,7 +20562,7 @@
       <c r="Z717" s="2"/>
     </row>
     <row r="718">
-      <c r="A718" s="9"/>
+      <c r="A718" s="7"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -20769,7 +20590,7 @@
       <c r="Z718" s="2"/>
     </row>
     <row r="719">
-      <c r="A719" s="9"/>
+      <c r="A719" s="7"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -20797,7 +20618,7 @@
       <c r="Z719" s="2"/>
     </row>
     <row r="720">
-      <c r="A720" s="9"/>
+      <c r="A720" s="7"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -20825,7 +20646,7 @@
       <c r="Z720" s="2"/>
     </row>
     <row r="721">
-      <c r="A721" s="9"/>
+      <c r="A721" s="7"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -20853,7 +20674,7 @@
       <c r="Z721" s="2"/>
     </row>
     <row r="722">
-      <c r="A722" s="9"/>
+      <c r="A722" s="7"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -20881,7 +20702,7 @@
       <c r="Z722" s="2"/>
     </row>
     <row r="723">
-      <c r="A723" s="9"/>
+      <c r="A723" s="7"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -20909,7 +20730,7 @@
       <c r="Z723" s="2"/>
     </row>
     <row r="724">
-      <c r="A724" s="9"/>
+      <c r="A724" s="7"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -20937,7 +20758,7 @@
       <c r="Z724" s="2"/>
     </row>
     <row r="725">
-      <c r="A725" s="9"/>
+      <c r="A725" s="7"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -20965,7 +20786,7 @@
       <c r="Z725" s="2"/>
     </row>
     <row r="726">
-      <c r="A726" s="9"/>
+      <c r="A726" s="7"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -20993,7 +20814,7 @@
       <c r="Z726" s="2"/>
     </row>
     <row r="727">
-      <c r="A727" s="9"/>
+      <c r="A727" s="7"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -21021,7 +20842,7 @@
       <c r="Z727" s="2"/>
     </row>
     <row r="728">
-      <c r="A728" s="9"/>
+      <c r="A728" s="7"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -21049,7 +20870,7 @@
       <c r="Z728" s="2"/>
     </row>
     <row r="729">
-      <c r="A729" s="9"/>
+      <c r="A729" s="7"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -21077,7 +20898,7 @@
       <c r="Z729" s="2"/>
     </row>
     <row r="730">
-      <c r="A730" s="9"/>
+      <c r="A730" s="7"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -21105,7 +20926,7 @@
       <c r="Z730" s="2"/>
     </row>
     <row r="731">
-      <c r="A731" s="9"/>
+      <c r="A731" s="7"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -21133,7 +20954,7 @@
       <c r="Z731" s="2"/>
     </row>
     <row r="732">
-      <c r="A732" s="9"/>
+      <c r="A732" s="7"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -21161,7 +20982,7 @@
       <c r="Z732" s="2"/>
     </row>
     <row r="733">
-      <c r="A733" s="9"/>
+      <c r="A733" s="7"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -21189,7 +21010,7 @@
       <c r="Z733" s="2"/>
     </row>
     <row r="734">
-      <c r="A734" s="9"/>
+      <c r="A734" s="7"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -21217,7 +21038,7 @@
       <c r="Z734" s="2"/>
     </row>
     <row r="735">
-      <c r="A735" s="9"/>
+      <c r="A735" s="7"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -21245,7 +21066,7 @@
       <c r="Z735" s="2"/>
     </row>
     <row r="736">
-      <c r="A736" s="9"/>
+      <c r="A736" s="7"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -21273,7 +21094,7 @@
       <c r="Z736" s="2"/>
     </row>
     <row r="737">
-      <c r="A737" s="9"/>
+      <c r="A737" s="7"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -21301,7 +21122,7 @@
       <c r="Z737" s="2"/>
     </row>
     <row r="738">
-      <c r="A738" s="9"/>
+      <c r="A738" s="7"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -21329,7 +21150,7 @@
       <c r="Z738" s="2"/>
     </row>
     <row r="739">
-      <c r="A739" s="9"/>
+      <c r="A739" s="7"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -21357,7 +21178,7 @@
       <c r="Z739" s="2"/>
     </row>
     <row r="740">
-      <c r="A740" s="9"/>
+      <c r="A740" s="7"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -21385,7 +21206,7 @@
       <c r="Z740" s="2"/>
     </row>
     <row r="741">
-      <c r="A741" s="9"/>
+      <c r="A741" s="7"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -21413,7 +21234,7 @@
       <c r="Z741" s="2"/>
     </row>
     <row r="742">
-      <c r="A742" s="9"/>
+      <c r="A742" s="7"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -21441,7 +21262,7 @@
       <c r="Z742" s="2"/>
     </row>
     <row r="743">
-      <c r="A743" s="9"/>
+      <c r="A743" s="7"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -21469,7 +21290,7 @@
       <c r="Z743" s="2"/>
     </row>
     <row r="744">
-      <c r="A744" s="9"/>
+      <c r="A744" s="7"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -21497,7 +21318,7 @@
       <c r="Z744" s="2"/>
     </row>
     <row r="745">
-      <c r="A745" s="9"/>
+      <c r="A745" s="7"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -21525,7 +21346,7 @@
       <c r="Z745" s="2"/>
     </row>
     <row r="746">
-      <c r="A746" s="9"/>
+      <c r="A746" s="7"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -21553,7 +21374,7 @@
       <c r="Z746" s="2"/>
     </row>
     <row r="747">
-      <c r="A747" s="9"/>
+      <c r="A747" s="7"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -21581,7 +21402,7 @@
       <c r="Z747" s="2"/>
     </row>
     <row r="748">
-      <c r="A748" s="9"/>
+      <c r="A748" s="7"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -21609,7 +21430,7 @@
       <c r="Z748" s="2"/>
     </row>
     <row r="749">
-      <c r="A749" s="9"/>
+      <c r="A749" s="7"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -21637,7 +21458,7 @@
       <c r="Z749" s="2"/>
     </row>
     <row r="750">
-      <c r="A750" s="9"/>
+      <c r="A750" s="7"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -21665,7 +21486,7 @@
       <c r="Z750" s="2"/>
     </row>
     <row r="751">
-      <c r="A751" s="9"/>
+      <c r="A751" s="7"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -21693,7 +21514,7 @@
       <c r="Z751" s="2"/>
     </row>
     <row r="752">
-      <c r="A752" s="9"/>
+      <c r="A752" s="7"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -21721,7 +21542,7 @@
       <c r="Z752" s="2"/>
     </row>
     <row r="753">
-      <c r="A753" s="9"/>
+      <c r="A753" s="7"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -21749,7 +21570,7 @@
       <c r="Z753" s="2"/>
     </row>
     <row r="754">
-      <c r="A754" s="9"/>
+      <c r="A754" s="7"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -21777,7 +21598,7 @@
       <c r="Z754" s="2"/>
     </row>
     <row r="755">
-      <c r="A755" s="9"/>
+      <c r="A755" s="7"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -21805,7 +21626,7 @@
       <c r="Z755" s="2"/>
     </row>
     <row r="756">
-      <c r="A756" s="9"/>
+      <c r="A756" s="7"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -21833,7 +21654,7 @@
       <c r="Z756" s="2"/>
     </row>
     <row r="757">
-      <c r="A757" s="9"/>
+      <c r="A757" s="7"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -21861,7 +21682,7 @@
       <c r="Z757" s="2"/>
     </row>
     <row r="758">
-      <c r="A758" s="9"/>
+      <c r="A758" s="7"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -21889,7 +21710,7 @@
       <c r="Z758" s="2"/>
     </row>
     <row r="759">
-      <c r="A759" s="9"/>
+      <c r="A759" s="7"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -21917,7 +21738,7 @@
       <c r="Z759" s="2"/>
     </row>
     <row r="760">
-      <c r="A760" s="9"/>
+      <c r="A760" s="7"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -21945,7 +21766,7 @@
       <c r="Z760" s="2"/>
     </row>
     <row r="761">
-      <c r="A761" s="9"/>
+      <c r="A761" s="7"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -21973,7 +21794,7 @@
       <c r="Z761" s="2"/>
     </row>
     <row r="762">
-      <c r="A762" s="9"/>
+      <c r="A762" s="7"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -22001,7 +21822,7 @@
       <c r="Z762" s="2"/>
     </row>
     <row r="763">
-      <c r="A763" s="9"/>
+      <c r="A763" s="7"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -22029,7 +21850,7 @@
       <c r="Z763" s="2"/>
     </row>
     <row r="764">
-      <c r="A764" s="9"/>
+      <c r="A764" s="7"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -22057,7 +21878,7 @@
       <c r="Z764" s="2"/>
     </row>
     <row r="765">
-      <c r="A765" s="9"/>
+      <c r="A765" s="7"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -22085,7 +21906,7 @@
       <c r="Z765" s="2"/>
     </row>
     <row r="766">
-      <c r="A766" s="9"/>
+      <c r="A766" s="7"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -22113,7 +21934,7 @@
       <c r="Z766" s="2"/>
     </row>
     <row r="767">
-      <c r="A767" s="9"/>
+      <c r="A767" s="7"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -22141,7 +21962,7 @@
       <c r="Z767" s="2"/>
     </row>
     <row r="768">
-      <c r="A768" s="9"/>
+      <c r="A768" s="7"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -22169,7 +21990,7 @@
       <c r="Z768" s="2"/>
     </row>
     <row r="769">
-      <c r="A769" s="9"/>
+      <c r="A769" s="7"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -22197,7 +22018,7 @@
       <c r="Z769" s="2"/>
     </row>
     <row r="770">
-      <c r="A770" s="9"/>
+      <c r="A770" s="7"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -22225,7 +22046,7 @@
       <c r="Z770" s="2"/>
     </row>
     <row r="771">
-      <c r="A771" s="9"/>
+      <c r="A771" s="7"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -22253,7 +22074,7 @@
       <c r="Z771" s="2"/>
     </row>
     <row r="772">
-      <c r="A772" s="9"/>
+      <c r="A772" s="7"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -22281,7 +22102,7 @@
       <c r="Z772" s="2"/>
     </row>
     <row r="773">
-      <c r="A773" s="9"/>
+      <c r="A773" s="7"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -22309,7 +22130,7 @@
       <c r="Z773" s="2"/>
     </row>
     <row r="774">
-      <c r="A774" s="9"/>
+      <c r="A774" s="7"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -22337,7 +22158,7 @@
       <c r="Z774" s="2"/>
     </row>
     <row r="775">
-      <c r="A775" s="9"/>
+      <c r="A775" s="7"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -22365,7 +22186,7 @@
       <c r="Z775" s="2"/>
     </row>
     <row r="776">
-      <c r="A776" s="9"/>
+      <c r="A776" s="7"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -22393,7 +22214,7 @@
       <c r="Z776" s="2"/>
     </row>
     <row r="777">
-      <c r="A777" s="9"/>
+      <c r="A777" s="7"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -22421,7 +22242,7 @@
       <c r="Z777" s="2"/>
     </row>
     <row r="778">
-      <c r="A778" s="9"/>
+      <c r="A778" s="7"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -22449,7 +22270,7 @@
       <c r="Z778" s="2"/>
     </row>
     <row r="779">
-      <c r="A779" s="9"/>
+      <c r="A779" s="7"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -22477,7 +22298,7 @@
       <c r="Z779" s="2"/>
     </row>
     <row r="780">
-      <c r="A780" s="9"/>
+      <c r="A780" s="7"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -22505,7 +22326,7 @@
       <c r="Z780" s="2"/>
     </row>
     <row r="781">
-      <c r="A781" s="9"/>
+      <c r="A781" s="7"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -22533,7 +22354,7 @@
       <c r="Z781" s="2"/>
     </row>
     <row r="782">
-      <c r="A782" s="9"/>
+      <c r="A782" s="7"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -22561,7 +22382,7 @@
       <c r="Z782" s="2"/>
     </row>
     <row r="783">
-      <c r="A783" s="9"/>
+      <c r="A783" s="7"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -22589,7 +22410,7 @@
       <c r="Z783" s="2"/>
     </row>
     <row r="784">
-      <c r="A784" s="9"/>
+      <c r="A784" s="7"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -22617,7 +22438,7 @@
       <c r="Z784" s="2"/>
     </row>
     <row r="785">
-      <c r="A785" s="9"/>
+      <c r="A785" s="7"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -22645,7 +22466,7 @@
       <c r="Z785" s="2"/>
     </row>
     <row r="786">
-      <c r="A786" s="9"/>
+      <c r="A786" s="7"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -22673,7 +22494,7 @@
       <c r="Z786" s="2"/>
     </row>
     <row r="787">
-      <c r="A787" s="9"/>
+      <c r="A787" s="7"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -22701,7 +22522,7 @@
       <c r="Z787" s="2"/>
     </row>
     <row r="788">
-      <c r="A788" s="9"/>
+      <c r="A788" s="7"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -22729,7 +22550,7 @@
       <c r="Z788" s="2"/>
     </row>
     <row r="789">
-      <c r="A789" s="9"/>
+      <c r="A789" s="7"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -22757,7 +22578,7 @@
       <c r="Z789" s="2"/>
     </row>
     <row r="790">
-      <c r="A790" s="9"/>
+      <c r="A790" s="7"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -22785,7 +22606,7 @@
       <c r="Z790" s="2"/>
     </row>
     <row r="791">
-      <c r="A791" s="9"/>
+      <c r="A791" s="7"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -22813,7 +22634,7 @@
       <c r="Z791" s="2"/>
     </row>
     <row r="792">
-      <c r="A792" s="9"/>
+      <c r="A792" s="7"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -22841,7 +22662,7 @@
       <c r="Z792" s="2"/>
     </row>
     <row r="793">
-      <c r="A793" s="9"/>
+      <c r="A793" s="7"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -22869,7 +22690,7 @@
       <c r="Z793" s="2"/>
     </row>
     <row r="794">
-      <c r="A794" s="9"/>
+      <c r="A794" s="7"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -22897,7 +22718,7 @@
       <c r="Z794" s="2"/>
     </row>
     <row r="795">
-      <c r="A795" s="9"/>
+      <c r="A795" s="7"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -22925,7 +22746,7 @@
       <c r="Z795" s="2"/>
     </row>
     <row r="796">
-      <c r="A796" s="9"/>
+      <c r="A796" s="7"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -22953,7 +22774,7 @@
       <c r="Z796" s="2"/>
     </row>
     <row r="797">
-      <c r="A797" s="9"/>
+      <c r="A797" s="7"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -22981,7 +22802,7 @@
       <c r="Z797" s="2"/>
     </row>
     <row r="798">
-      <c r="A798" s="9"/>
+      <c r="A798" s="7"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -23009,7 +22830,7 @@
       <c r="Z798" s="2"/>
     </row>
     <row r="799">
-      <c r="A799" s="9"/>
+      <c r="A799" s="7"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -23037,7 +22858,7 @@
       <c r="Z799" s="2"/>
     </row>
     <row r="800">
-      <c r="A800" s="9"/>
+      <c r="A800" s="7"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -23065,7 +22886,7 @@
       <c r="Z800" s="2"/>
     </row>
     <row r="801">
-      <c r="A801" s="9"/>
+      <c r="A801" s="7"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -23093,7 +22914,7 @@
       <c r="Z801" s="2"/>
     </row>
     <row r="802">
-      <c r="A802" s="9"/>
+      <c r="A802" s="7"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -23121,7 +22942,7 @@
       <c r="Z802" s="2"/>
     </row>
     <row r="803">
-      <c r="A803" s="9"/>
+      <c r="A803" s="7"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -23149,7 +22970,7 @@
       <c r="Z803" s="2"/>
     </row>
     <row r="804">
-      <c r="A804" s="9"/>
+      <c r="A804" s="7"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -23177,7 +22998,7 @@
       <c r="Z804" s="2"/>
     </row>
     <row r="805">
-      <c r="A805" s="9"/>
+      <c r="A805" s="7"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -23205,7 +23026,7 @@
       <c r="Z805" s="2"/>
     </row>
     <row r="806">
-      <c r="A806" s="9"/>
+      <c r="A806" s="7"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -23233,7 +23054,7 @@
       <c r="Z806" s="2"/>
     </row>
     <row r="807">
-      <c r="A807" s="9"/>
+      <c r="A807" s="7"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -23261,7 +23082,7 @@
       <c r="Z807" s="2"/>
     </row>
     <row r="808">
-      <c r="A808" s="9"/>
+      <c r="A808" s="7"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -23289,7 +23110,7 @@
       <c r="Z808" s="2"/>
     </row>
     <row r="809">
-      <c r="A809" s="9"/>
+      <c r="A809" s="7"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -23317,7 +23138,7 @@
       <c r="Z809" s="2"/>
     </row>
     <row r="810">
-      <c r="A810" s="9"/>
+      <c r="A810" s="7"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -23345,7 +23166,7 @@
       <c r="Z810" s="2"/>
     </row>
     <row r="811">
-      <c r="A811" s="9"/>
+      <c r="A811" s="7"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -23373,7 +23194,7 @@
       <c r="Z811" s="2"/>
     </row>
     <row r="812">
-      <c r="A812" s="9"/>
+      <c r="A812" s="7"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -23401,7 +23222,7 @@
       <c r="Z812" s="2"/>
     </row>
     <row r="813">
-      <c r="A813" s="9"/>
+      <c r="A813" s="7"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -23429,7 +23250,7 @@
       <c r="Z813" s="2"/>
     </row>
     <row r="814">
-      <c r="A814" s="9"/>
+      <c r="A814" s="7"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -23457,7 +23278,7 @@
       <c r="Z814" s="2"/>
     </row>
     <row r="815">
-      <c r="A815" s="9"/>
+      <c r="A815" s="7"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -23485,7 +23306,7 @@
       <c r="Z815" s="2"/>
     </row>
     <row r="816">
-      <c r="A816" s="9"/>
+      <c r="A816" s="7"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -23513,7 +23334,7 @@
       <c r="Z816" s="2"/>
     </row>
     <row r="817">
-      <c r="A817" s="9"/>
+      <c r="A817" s="7"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -23541,7 +23362,7 @@
       <c r="Z817" s="2"/>
     </row>
     <row r="818">
-      <c r="A818" s="9"/>
+      <c r="A818" s="7"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -23569,7 +23390,7 @@
       <c r="Z818" s="2"/>
     </row>
     <row r="819">
-      <c r="A819" s="9"/>
+      <c r="A819" s="7"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -23597,7 +23418,7 @@
       <c r="Z819" s="2"/>
     </row>
     <row r="820">
-      <c r="A820" s="9"/>
+      <c r="A820" s="7"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -23625,7 +23446,7 @@
       <c r="Z820" s="2"/>
     </row>
     <row r="821">
-      <c r="A821" s="9"/>
+      <c r="A821" s="7"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -23653,7 +23474,7 @@
       <c r="Z821" s="2"/>
     </row>
     <row r="822">
-      <c r="A822" s="9"/>
+      <c r="A822" s="7"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -23681,7 +23502,7 @@
       <c r="Z822" s="2"/>
     </row>
     <row r="823">
-      <c r="A823" s="9"/>
+      <c r="A823" s="7"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -23709,7 +23530,7 @@
       <c r="Z823" s="2"/>
     </row>
     <row r="824">
-      <c r="A824" s="9"/>
+      <c r="A824" s="7"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -23737,7 +23558,7 @@
       <c r="Z824" s="2"/>
     </row>
     <row r="825">
-      <c r="A825" s="9"/>
+      <c r="A825" s="7"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -23765,7 +23586,7 @@
       <c r="Z825" s="2"/>
     </row>
     <row r="826">
-      <c r="A826" s="9"/>
+      <c r="A826" s="7"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -23793,7 +23614,7 @@
       <c r="Z826" s="2"/>
     </row>
     <row r="827">
-      <c r="A827" s="9"/>
+      <c r="A827" s="7"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -23821,7 +23642,7 @@
       <c r="Z827" s="2"/>
     </row>
     <row r="828">
-      <c r="A828" s="9"/>
+      <c r="A828" s="7"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -23849,7 +23670,7 @@
       <c r="Z828" s="2"/>
     </row>
     <row r="829">
-      <c r="A829" s="9"/>
+      <c r="A829" s="7"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -23877,7 +23698,7 @@
       <c r="Z829" s="2"/>
     </row>
     <row r="830">
-      <c r="A830" s="9"/>
+      <c r="A830" s="7"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -23905,7 +23726,7 @@
       <c r="Z830" s="2"/>
     </row>
     <row r="831">
-      <c r="A831" s="9"/>
+      <c r="A831" s="7"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -23933,7 +23754,7 @@
       <c r="Z831" s="2"/>
     </row>
     <row r="832">
-      <c r="A832" s="9"/>
+      <c r="A832" s="7"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -23961,7 +23782,7 @@
       <c r="Z832" s="2"/>
     </row>
     <row r="833">
-      <c r="A833" s="9"/>
+      <c r="A833" s="7"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -23989,7 +23810,7 @@
       <c r="Z833" s="2"/>
     </row>
     <row r="834">
-      <c r="A834" s="9"/>
+      <c r="A834" s="7"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -24017,7 +23838,7 @@
       <c r="Z834" s="2"/>
     </row>
     <row r="835">
-      <c r="A835" s="9"/>
+      <c r="A835" s="7"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -24045,7 +23866,7 @@
       <c r="Z835" s="2"/>
     </row>
     <row r="836">
-      <c r="A836" s="9"/>
+      <c r="A836" s="7"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -24073,7 +23894,7 @@
       <c r="Z836" s="2"/>
     </row>
     <row r="837">
-      <c r="A837" s="9"/>
+      <c r="A837" s="7"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -24101,7 +23922,7 @@
       <c r="Z837" s="2"/>
     </row>
     <row r="838">
-      <c r="A838" s="9"/>
+      <c r="A838" s="7"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -24129,7 +23950,7 @@
       <c r="Z838" s="2"/>
     </row>
     <row r="839">
-      <c r="A839" s="9"/>
+      <c r="A839" s="7"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -24157,7 +23978,7 @@
       <c r="Z839" s="2"/>
     </row>
     <row r="840">
-      <c r="A840" s="9"/>
+      <c r="A840" s="7"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -24185,7 +24006,7 @@
       <c r="Z840" s="2"/>
     </row>
     <row r="841">
-      <c r="A841" s="9"/>
+      <c r="A841" s="7"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -24213,7 +24034,7 @@
       <c r="Z841" s="2"/>
     </row>
     <row r="842">
-      <c r="A842" s="9"/>
+      <c r="A842" s="7"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -24241,7 +24062,7 @@
       <c r="Z842" s="2"/>
     </row>
     <row r="843">
-      <c r="A843" s="9"/>
+      <c r="A843" s="7"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -24269,7 +24090,7 @@
       <c r="Z843" s="2"/>
     </row>
     <row r="844">
-      <c r="A844" s="9"/>
+      <c r="A844" s="7"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -24297,7 +24118,7 @@
       <c r="Z844" s="2"/>
     </row>
     <row r="845">
-      <c r="A845" s="9"/>
+      <c r="A845" s="7"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -24325,7 +24146,7 @@
       <c r="Z845" s="2"/>
     </row>
     <row r="846">
-      <c r="A846" s="9"/>
+      <c r="A846" s="7"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -24353,7 +24174,7 @@
       <c r="Z846" s="2"/>
     </row>
     <row r="847">
-      <c r="A847" s="9"/>
+      <c r="A847" s="7"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -24381,7 +24202,7 @@
       <c r="Z847" s="2"/>
     </row>
     <row r="848">
-      <c r="A848" s="9"/>
+      <c r="A848" s="7"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -24409,7 +24230,7 @@
       <c r="Z848" s="2"/>
     </row>
     <row r="849">
-      <c r="A849" s="9"/>
+      <c r="A849" s="7"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -24437,7 +24258,7 @@
       <c r="Z849" s="2"/>
     </row>
     <row r="850">
-      <c r="A850" s="9"/>
+      <c r="A850" s="7"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -24465,7 +24286,7 @@
       <c r="Z850" s="2"/>
     </row>
     <row r="851">
-      <c r="A851" s="9"/>
+      <c r="A851" s="7"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -24493,7 +24314,7 @@
       <c r="Z851" s="2"/>
     </row>
     <row r="852">
-      <c r="A852" s="9"/>
+      <c r="A852" s="7"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -24521,7 +24342,7 @@
       <c r="Z852" s="2"/>
     </row>
     <row r="853">
-      <c r="A853" s="9"/>
+      <c r="A853" s="7"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -24549,7 +24370,7 @@
       <c r="Z853" s="2"/>
     </row>
     <row r="854">
-      <c r="A854" s="9"/>
+      <c r="A854" s="7"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -24577,7 +24398,7 @@
       <c r="Z854" s="2"/>
     </row>
     <row r="855">
-      <c r="A855" s="9"/>
+      <c r="A855" s="7"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -24605,7 +24426,7 @@
       <c r="Z855" s="2"/>
     </row>
     <row r="856">
-      <c r="A856" s="9"/>
+      <c r="A856" s="7"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -24633,7 +24454,7 @@
       <c r="Z856" s="2"/>
     </row>
     <row r="857">
-      <c r="A857" s="9"/>
+      <c r="A857" s="7"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -24661,7 +24482,7 @@
       <c r="Z857" s="2"/>
     </row>
     <row r="858">
-      <c r="A858" s="9"/>
+      <c r="A858" s="7"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -24689,7 +24510,7 @@
       <c r="Z858" s="2"/>
     </row>
     <row r="859">
-      <c r="A859" s="9"/>
+      <c r="A859" s="7"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -24717,7 +24538,7 @@
       <c r="Z859" s="2"/>
     </row>
     <row r="860">
-      <c r="A860" s="9"/>
+      <c r="A860" s="7"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -24745,7 +24566,7 @@
       <c r="Z860" s="2"/>
     </row>
     <row r="861">
-      <c r="A861" s="9"/>
+      <c r="A861" s="7"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -24773,7 +24594,7 @@
       <c r="Z861" s="2"/>
     </row>
     <row r="862">
-      <c r="A862" s="9"/>
+      <c r="A862" s="7"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -24801,7 +24622,7 @@
       <c r="Z862" s="2"/>
     </row>
     <row r="863">
-      <c r="A863" s="9"/>
+      <c r="A863" s="7"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -24829,7 +24650,7 @@
       <c r="Z863" s="2"/>
     </row>
     <row r="864">
-      <c r="A864" s="9"/>
+      <c r="A864" s="7"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -24857,7 +24678,7 @@
       <c r="Z864" s="2"/>
     </row>
     <row r="865">
-      <c r="A865" s="9"/>
+      <c r="A865" s="7"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -24885,7 +24706,7 @@
       <c r="Z865" s="2"/>
     </row>
     <row r="866">
-      <c r="A866" s="9"/>
+      <c r="A866" s="7"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -24913,7 +24734,7 @@
       <c r="Z866" s="2"/>
     </row>
     <row r="867">
-      <c r="A867" s="9"/>
+      <c r="A867" s="7"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -24941,7 +24762,7 @@
       <c r="Z867" s="2"/>
     </row>
     <row r="868">
-      <c r="A868" s="9"/>
+      <c r="A868" s="7"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -24969,7 +24790,7 @@
       <c r="Z868" s="2"/>
     </row>
     <row r="869">
-      <c r="A869" s="9"/>
+      <c r="A869" s="7"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -24997,7 +24818,7 @@
       <c r="Z869" s="2"/>
     </row>
     <row r="870">
-      <c r="A870" s="9"/>
+      <c r="A870" s="7"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -25025,7 +24846,7 @@
       <c r="Z870" s="2"/>
     </row>
     <row r="871">
-      <c r="A871" s="9"/>
+      <c r="A871" s="7"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -25053,7 +24874,7 @@
       <c r="Z871" s="2"/>
     </row>
     <row r="872">
-      <c r="A872" s="9"/>
+      <c r="A872" s="7"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -25081,7 +24902,7 @@
       <c r="Z872" s="2"/>
     </row>
     <row r="873">
-      <c r="A873" s="9"/>
+      <c r="A873" s="7"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -25109,7 +24930,7 @@
       <c r="Z873" s="2"/>
     </row>
     <row r="874">
-      <c r="A874" s="9"/>
+      <c r="A874" s="7"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -25137,7 +24958,7 @@
       <c r="Z874" s="2"/>
     </row>
     <row r="875">
-      <c r="A875" s="9"/>
+      <c r="A875" s="7"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -25165,7 +24986,7 @@
       <c r="Z875" s="2"/>
     </row>
     <row r="876">
-      <c r="A876" s="9"/>
+      <c r="A876" s="7"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -25193,7 +25014,7 @@
       <c r="Z876" s="2"/>
     </row>
     <row r="877">
-      <c r="A877" s="9"/>
+      <c r="A877" s="7"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -25221,7 +25042,7 @@
       <c r="Z877" s="2"/>
     </row>
     <row r="878">
-      <c r="A878" s="9"/>
+      <c r="A878" s="7"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -25249,7 +25070,7 @@
       <c r="Z878" s="2"/>
     </row>
     <row r="879">
-      <c r="A879" s="9"/>
+      <c r="A879" s="7"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -25277,7 +25098,7 @@
       <c r="Z879" s="2"/>
     </row>
     <row r="880">
-      <c r="A880" s="9"/>
+      <c r="A880" s="7"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -25305,7 +25126,7 @@
       <c r="Z880" s="2"/>
     </row>
     <row r="881">
-      <c r="A881" s="9"/>
+      <c r="A881" s="7"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -25333,7 +25154,7 @@
       <c r="Z881" s="2"/>
     </row>
     <row r="882">
-      <c r="A882" s="9"/>
+      <c r="A882" s="7"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -25361,7 +25182,7 @@
       <c r="Z882" s="2"/>
     </row>
     <row r="883">
-      <c r="A883" s="9"/>
+      <c r="A883" s="7"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -25389,7 +25210,7 @@
       <c r="Z883" s="2"/>
     </row>
     <row r="884">
-      <c r="A884" s="9"/>
+      <c r="A884" s="7"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -25417,7 +25238,7 @@
       <c r="Z884" s="2"/>
     </row>
     <row r="885">
-      <c r="A885" s="9"/>
+      <c r="A885" s="7"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -25445,7 +25266,7 @@
       <c r="Z885" s="2"/>
     </row>
     <row r="886">
-      <c r="A886" s="9"/>
+      <c r="A886" s="7"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -25473,7 +25294,7 @@
       <c r="Z886" s="2"/>
     </row>
     <row r="887">
-      <c r="A887" s="9"/>
+      <c r="A887" s="7"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -25501,7 +25322,7 @@
       <c r="Z887" s="2"/>
     </row>
     <row r="888">
-      <c r="A888" s="9"/>
+      <c r="A888" s="7"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -25529,7 +25350,7 @@
       <c r="Z888" s="2"/>
     </row>
     <row r="889">
-      <c r="A889" s="9"/>
+      <c r="A889" s="7"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -25557,7 +25378,7 @@
       <c r="Z889" s="2"/>
     </row>
     <row r="890">
-      <c r="A890" s="9"/>
+      <c r="A890" s="7"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -25585,7 +25406,7 @@
       <c r="Z890" s="2"/>
     </row>
     <row r="891">
-      <c r="A891" s="9"/>
+      <c r="A891" s="7"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -25613,7 +25434,7 @@
       <c r="Z891" s="2"/>
     </row>
     <row r="892">
-      <c r="A892" s="9"/>
+      <c r="A892" s="7"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -25641,7 +25462,7 @@
       <c r="Z892" s="2"/>
     </row>
     <row r="893">
-      <c r="A893" s="9"/>
+      <c r="A893" s="7"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -25669,7 +25490,7 @@
       <c r="Z893" s="2"/>
     </row>
     <row r="894">
-      <c r="A894" s="9"/>
+      <c r="A894" s="7"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -25697,7 +25518,7 @@
       <c r="Z894" s="2"/>
     </row>
     <row r="895">
-      <c r="A895" s="9"/>
+      <c r="A895" s="7"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -25725,7 +25546,7 @@
       <c r="Z895" s="2"/>
     </row>
     <row r="896">
-      <c r="A896" s="9"/>
+      <c r="A896" s="7"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -25753,7 +25574,7 @@
       <c r="Z896" s="2"/>
     </row>
     <row r="897">
-      <c r="A897" s="9"/>
+      <c r="A897" s="7"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -25781,7 +25602,7 @@
       <c r="Z897" s="2"/>
     </row>
     <row r="898">
-      <c r="A898" s="9"/>
+      <c r="A898" s="7"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -25809,7 +25630,7 @@
       <c r="Z898" s="2"/>
     </row>
     <row r="899">
-      <c r="A899" s="9"/>
+      <c r="A899" s="7"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -25837,7 +25658,7 @@
       <c r="Z899" s="2"/>
     </row>
     <row r="900">
-      <c r="A900" s="9"/>
+      <c r="A900" s="7"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -25865,7 +25686,7 @@
       <c r="Z900" s="2"/>
     </row>
     <row r="901">
-      <c r="A901" s="9"/>
+      <c r="A901" s="7"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -25893,7 +25714,7 @@
       <c r="Z901" s="2"/>
     </row>
     <row r="902">
-      <c r="A902" s="9"/>
+      <c r="A902" s="7"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -25921,7 +25742,7 @@
       <c r="Z902" s="2"/>
     </row>
     <row r="903">
-      <c r="A903" s="9"/>
+      <c r="A903" s="7"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -25949,7 +25770,7 @@
       <c r="Z903" s="2"/>
     </row>
     <row r="904">
-      <c r="A904" s="9"/>
+      <c r="A904" s="7"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -25977,7 +25798,7 @@
       <c r="Z904" s="2"/>
     </row>
     <row r="905">
-      <c r="A905" s="9"/>
+      <c r="A905" s="7"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -26005,7 +25826,7 @@
       <c r="Z905" s="2"/>
     </row>
     <row r="906">
-      <c r="A906" s="9"/>
+      <c r="A906" s="7"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -26033,7 +25854,7 @@
       <c r="Z906" s="2"/>
     </row>
     <row r="907">
-      <c r="A907" s="9"/>
+      <c r="A907" s="7"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -26061,7 +25882,7 @@
       <c r="Z907" s="2"/>
     </row>
     <row r="908">
-      <c r="A908" s="9"/>
+      <c r="A908" s="7"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -26089,7 +25910,7 @@
       <c r="Z908" s="2"/>
     </row>
     <row r="909">
-      <c r="A909" s="9"/>
+      <c r="A909" s="7"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -26117,7 +25938,7 @@
       <c r="Z909" s="2"/>
     </row>
     <row r="910">
-      <c r="A910" s="9"/>
+      <c r="A910" s="7"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -26145,7 +25966,7 @@
       <c r="Z910" s="2"/>
     </row>
     <row r="911">
-      <c r="A911" s="9"/>
+      <c r="A911" s="7"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -26173,7 +25994,7 @@
       <c r="Z911" s="2"/>
     </row>
     <row r="912">
-      <c r="A912" s="9"/>
+      <c r="A912" s="7"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -26201,7 +26022,7 @@
       <c r="Z912" s="2"/>
     </row>
     <row r="913">
-      <c r="A913" s="9"/>
+      <c r="A913" s="7"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -26229,7 +26050,7 @@
       <c r="Z913" s="2"/>
     </row>
     <row r="914">
-      <c r="A914" s="9"/>
+      <c r="A914" s="7"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -26257,7 +26078,7 @@
       <c r="Z914" s="2"/>
     </row>
     <row r="915">
-      <c r="A915" s="9"/>
+      <c r="A915" s="7"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -26285,7 +26106,7 @@
       <c r="Z915" s="2"/>
     </row>
     <row r="916">
-      <c r="A916" s="9"/>
+      <c r="A916" s="7"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -26313,7 +26134,7 @@
       <c r="Z916" s="2"/>
     </row>
     <row r="917">
-      <c r="A917" s="9"/>
+      <c r="A917" s="7"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -26341,7 +26162,7 @@
       <c r="Z917" s="2"/>
     </row>
     <row r="918">
-      <c r="A918" s="9"/>
+      <c r="A918" s="7"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -26369,7 +26190,7 @@
       <c r="Z918" s="2"/>
     </row>
     <row r="919">
-      <c r="A919" s="9"/>
+      <c r="A919" s="7"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -26397,7 +26218,7 @@
       <c r="Z919" s="2"/>
     </row>
     <row r="920">
-      <c r="A920" s="9"/>
+      <c r="A920" s="7"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -26425,7 +26246,7 @@
       <c r="Z920" s="2"/>
     </row>
     <row r="921">
-      <c r="A921" s="9"/>
+      <c r="A921" s="7"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -26453,7 +26274,7 @@
       <c r="Z921" s="2"/>
     </row>
     <row r="922">
-      <c r="A922" s="9"/>
+      <c r="A922" s="7"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -26481,7 +26302,7 @@
       <c r="Z922" s="2"/>
     </row>
     <row r="923">
-      <c r="A923" s="9"/>
+      <c r="A923" s="7"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -26509,7 +26330,7 @@
       <c r="Z923" s="2"/>
     </row>
     <row r="924">
-      <c r="A924" s="9"/>
+      <c r="A924" s="7"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -26537,7 +26358,7 @@
       <c r="Z924" s="2"/>
     </row>
     <row r="925">
-      <c r="A925" s="9"/>
+      <c r="A925" s="7"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -26565,7 +26386,7 @@
       <c r="Z925" s="2"/>
     </row>
     <row r="926">
-      <c r="A926" s="9"/>
+      <c r="A926" s="7"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -26593,7 +26414,7 @@
       <c r="Z926" s="2"/>
     </row>
     <row r="927">
-      <c r="A927" s="9"/>
+      <c r="A927" s="7"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -26621,7 +26442,7 @@
       <c r="Z927" s="2"/>
     </row>
     <row r="928">
-      <c r="A928" s="9"/>
+      <c r="A928" s="7"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -26649,7 +26470,7 @@
       <c r="Z928" s="2"/>
     </row>
     <row r="929">
-      <c r="A929" s="9"/>
+      <c r="A929" s="7"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -26677,7 +26498,7 @@
       <c r="Z929" s="2"/>
     </row>
     <row r="930">
-      <c r="A930" s="9"/>
+      <c r="A930" s="7"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -26705,7 +26526,7 @@
       <c r="Z930" s="2"/>
     </row>
     <row r="931">
-      <c r="A931" s="9"/>
+      <c r="A931" s="7"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -26733,7 +26554,7 @@
       <c r="Z931" s="2"/>
     </row>
     <row r="932">
-      <c r="A932" s="9"/>
+      <c r="A932" s="7"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -26761,7 +26582,7 @@
       <c r="Z932" s="2"/>
     </row>
     <row r="933">
-      <c r="A933" s="9"/>
+      <c r="A933" s="7"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -26789,7 +26610,7 @@
       <c r="Z933" s="2"/>
     </row>
     <row r="934">
-      <c r="A934" s="9"/>
+      <c r="A934" s="7"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -26817,7 +26638,7 @@
       <c r="Z934" s="2"/>
     </row>
     <row r="935">
-      <c r="A935" s="9"/>
+      <c r="A935" s="7"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -26845,7 +26666,7 @@
       <c r="Z935" s="2"/>
     </row>
     <row r="936">
-      <c r="A936" s="9"/>
+      <c r="A936" s="7"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -26873,7 +26694,7 @@
       <c r="Z936" s="2"/>
     </row>
     <row r="937">
-      <c r="A937" s="9"/>
+      <c r="A937" s="7"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -26901,7 +26722,7 @@
       <c r="Z937" s="2"/>
     </row>
     <row r="938">
-      <c r="A938" s="9"/>
+      <c r="A938" s="7"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -26929,7 +26750,7 @@
       <c r="Z938" s="2"/>
     </row>
     <row r="939">
-      <c r="A939" s="9"/>
+      <c r="A939" s="7"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -26957,7 +26778,7 @@
       <c r="Z939" s="2"/>
     </row>
     <row r="940">
-      <c r="A940" s="9"/>
+      <c r="A940" s="7"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -26985,7 +26806,7 @@
       <c r="Z940" s="2"/>
     </row>
     <row r="941">
-      <c r="A941" s="9"/>
+      <c r="A941" s="7"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -27013,7 +26834,7 @@
       <c r="Z941" s="2"/>
     </row>
     <row r="942">
-      <c r="A942" s="9"/>
+      <c r="A942" s="7"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -27041,7 +26862,7 @@
       <c r="Z942" s="2"/>
     </row>
     <row r="943">
-      <c r="A943" s="9"/>
+      <c r="A943" s="7"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -27069,7 +26890,7 @@
       <c r="Z943" s="2"/>
     </row>
     <row r="944">
-      <c r="A944" s="9"/>
+      <c r="A944" s="7"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -27097,7 +26918,7 @@
       <c r="Z944" s="2"/>
     </row>
     <row r="945">
-      <c r="A945" s="9"/>
+      <c r="A945" s="7"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -27125,7 +26946,7 @@
       <c r="Z945" s="2"/>
     </row>
     <row r="946">
-      <c r="A946" s="9"/>
+      <c r="A946" s="7"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -27153,7 +26974,7 @@
       <c r="Z946" s="2"/>
     </row>
     <row r="947">
-      <c r="A947" s="9"/>
+      <c r="A947" s="7"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -27181,7 +27002,7 @@
       <c r="Z947" s="2"/>
     </row>
     <row r="948">
-      <c r="A948" s="9"/>
+      <c r="A948" s="7"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -27209,7 +27030,7 @@
       <c r="Z948" s="2"/>
     </row>
     <row r="949">
-      <c r="A949" s="9"/>
+      <c r="A949" s="7"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -27237,7 +27058,7 @@
       <c r="Z949" s="2"/>
     </row>
     <row r="950">
-      <c r="A950" s="9"/>
+      <c r="A950" s="7"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -27265,7 +27086,7 @@
       <c r="Z950" s="2"/>
     </row>
     <row r="951">
-      <c r="A951" s="9"/>
+      <c r="A951" s="7"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -27293,7 +27114,7 @@
       <c r="Z951" s="2"/>
     </row>
     <row r="952">
-      <c r="A952" s="9"/>
+      <c r="A952" s="7"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -27321,7 +27142,7 @@
       <c r="Z952" s="2"/>
     </row>
     <row r="953">
-      <c r="A953" s="9"/>
+      <c r="A953" s="7"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -27349,7 +27170,7 @@
       <c r="Z953" s="2"/>
     </row>
     <row r="954">
-      <c r="A954" s="9"/>
+      <c r="A954" s="7"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -27377,7 +27198,7 @@
       <c r="Z954" s="2"/>
     </row>
     <row r="955">
-      <c r="A955" s="9"/>
+      <c r="A955" s="7"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -27405,7 +27226,7 @@
       <c r="Z955" s="2"/>
     </row>
     <row r="956">
-      <c r="A956" s="9"/>
+      <c r="A956" s="7"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -27433,7 +27254,7 @@
       <c r="Z956" s="2"/>
     </row>
     <row r="957">
-      <c r="A957" s="9"/>
+      <c r="A957" s="7"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -27461,7 +27282,7 @@
       <c r="Z957" s="2"/>
     </row>
     <row r="958">
-      <c r="A958" s="9"/>
+      <c r="A958" s="7"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
@@ -27489,7 +27310,7 @@
       <c r="Z958" s="2"/>
     </row>
     <row r="959">
-      <c r="A959" s="9"/>
+      <c r="A959" s="7"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -27517,7 +27338,7 @@
       <c r="Z959" s="2"/>
     </row>
     <row r="960">
-      <c r="A960" s="9"/>
+      <c r="A960" s="7"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -27545,7 +27366,7 @@
       <c r="Z960" s="2"/>
     </row>
     <row r="961">
-      <c r="A961" s="9"/>
+      <c r="A961" s="7"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
@@ -27573,7 +27394,7 @@
       <c r="Z961" s="2"/>
     </row>
     <row r="962">
-      <c r="A962" s="9"/>
+      <c r="A962" s="7"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -27601,7 +27422,7 @@
       <c r="Z962" s="2"/>
     </row>
     <row r="963">
-      <c r="A963" s="9"/>
+      <c r="A963" s="7"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
@@ -27629,7 +27450,7 @@
       <c r="Z963" s="2"/>
     </row>
     <row r="964">
-      <c r="A964" s="9"/>
+      <c r="A964" s="7"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -27657,7 +27478,7 @@
       <c r="Z964" s="2"/>
     </row>
     <row r="965">
-      <c r="A965" s="9"/>
+      <c r="A965" s="7"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
@@ -27685,7 +27506,7 @@
       <c r="Z965" s="2"/>
     </row>
     <row r="966">
-      <c r="A966" s="9"/>
+      <c r="A966" s="7"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
@@ -27713,7 +27534,7 @@
       <c r="Z966" s="2"/>
     </row>
     <row r="967">
-      <c r="A967" s="9"/>
+      <c r="A967" s="7"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -27741,7 +27562,7 @@
       <c r="Z967" s="2"/>
     </row>
     <row r="968">
-      <c r="A968" s="9"/>
+      <c r="A968" s="7"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -27769,7 +27590,7 @@
       <c r="Z968" s="2"/>
     </row>
     <row r="969">
-      <c r="A969" s="9"/>
+      <c r="A969" s="7"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
@@ -27797,7 +27618,7 @@
       <c r="Z969" s="2"/>
     </row>
     <row r="970">
-      <c r="A970" s="9"/>
+      <c r="A970" s="7"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -27825,7 +27646,7 @@
       <c r="Z970" s="2"/>
     </row>
     <row r="971">
-      <c r="A971" s="9"/>
+      <c r="A971" s="7"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -27853,7 +27674,7 @@
       <c r="Z971" s="2"/>
     </row>
     <row r="972">
-      <c r="A972" s="9"/>
+      <c r="A972" s="7"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
@@ -27881,7 +27702,7 @@
       <c r="Z972" s="2"/>
     </row>
     <row r="973">
-      <c r="A973" s="9"/>
+      <c r="A973" s="7"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -27909,7 +27730,7 @@
       <c r="Z973" s="2"/>
     </row>
     <row r="974">
-      <c r="A974" s="9"/>
+      <c r="A974" s="7"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
@@ -27937,7 +27758,7 @@
       <c r="Z974" s="2"/>
     </row>
     <row r="975">
-      <c r="A975" s="9"/>
+      <c r="A975" s="7"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
@@ -27965,7 +27786,7 @@
       <c r="Z975" s="2"/>
     </row>
     <row r="976">
-      <c r="A976" s="9"/>
+      <c r="A976" s="7"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -27993,7 +27814,7 @@
       <c r="Z976" s="2"/>
     </row>
     <row r="977">
-      <c r="A977" s="9"/>
+      <c r="A977" s="7"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -28021,7 +27842,7 @@
       <c r="Z977" s="2"/>
     </row>
     <row r="978">
-      <c r="A978" s="9"/>
+      <c r="A978" s="7"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
@@ -28049,7 +27870,7 @@
       <c r="Z978" s="2"/>
     </row>
     <row r="979">
-      <c r="A979" s="9"/>
+      <c r="A979" s="7"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -28077,7 +27898,7 @@
       <c r="Z979" s="2"/>
     </row>
     <row r="980">
-      <c r="A980" s="9"/>
+      <c r="A980" s="7"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
@@ -28105,7 +27926,7 @@
       <c r="Z980" s="2"/>
     </row>
     <row r="981">
-      <c r="A981" s="9"/>
+      <c r="A981" s="7"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
@@ -28133,7 +27954,7 @@
       <c r="Z981" s="2"/>
     </row>
     <row r="982">
-      <c r="A982" s="9"/>
+      <c r="A982" s="7"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -28161,7 +27982,7 @@
       <c r="Z982" s="2"/>
     </row>
     <row r="983">
-      <c r="A983" s="9"/>
+      <c r="A983" s="7"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -28189,7 +28010,7 @@
       <c r="Z983" s="2"/>
     </row>
     <row r="984">
-      <c r="A984" s="9"/>
+      <c r="A984" s="7"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
@@ -28217,7 +28038,7 @@
       <c r="Z984" s="2"/>
     </row>
     <row r="985">
-      <c r="A985" s="9"/>
+      <c r="A985" s="7"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
@@ -28245,7 +28066,7 @@
       <c r="Z985" s="2"/>
     </row>
     <row r="986">
-      <c r="A986" s="9"/>
+      <c r="A986" s="7"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
@@ -28273,7 +28094,7 @@
       <c r="Z986" s="2"/>
     </row>
     <row r="987">
-      <c r="A987" s="9"/>
+      <c r="A987" s="7"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -28301,7 +28122,7 @@
       <c r="Z987" s="2"/>
     </row>
     <row r="988">
-      <c r="A988" s="9"/>
+      <c r="A988" s="7"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
@@ -28329,7 +28150,7 @@
       <c r="Z988" s="2"/>
     </row>
     <row r="989">
-      <c r="A989" s="9"/>
+      <c r="A989" s="7"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
@@ -28357,7 +28178,7 @@
       <c r="Z989" s="2"/>
     </row>
     <row r="990">
-      <c r="A990" s="9"/>
+      <c r="A990" s="7"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -28385,7 +28206,7 @@
       <c r="Z990" s="2"/>
     </row>
     <row r="991">
-      <c r="A991" s="9"/>
+      <c r="A991" s="7"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -28413,7 +28234,7 @@
       <c r="Z991" s="2"/>
     </row>
     <row r="992">
-      <c r="A992" s="9"/>
+      <c r="A992" s="7"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
@@ -28441,7 +28262,7 @@
       <c r="Z992" s="2"/>
     </row>
     <row r="993">
-      <c r="A993" s="9"/>
+      <c r="A993" s="7"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
@@ -28469,7 +28290,7 @@
       <c r="Z993" s="2"/>
     </row>
     <row r="994">
-      <c r="A994" s="9"/>
+      <c r="A994" s="7"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -28497,7 +28318,7 @@
       <c r="Z994" s="2"/>
     </row>
     <row r="995">
-      <c r="A995" s="9"/>
+      <c r="A995" s="7"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
@@ -28525,7 +28346,7 @@
       <c r="Z995" s="2"/>
     </row>
     <row r="996">
-      <c r="A996" s="9"/>
+      <c r="A996" s="7"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -28553,7 +28374,7 @@
       <c r="Z996" s="2"/>
     </row>
     <row r="997">
-      <c r="A997" s="9"/>
+      <c r="A997" s="7"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -28581,7 +28402,7 @@
       <c r="Z997" s="2"/>
     </row>
     <row r="998">
-      <c r="A998" s="9"/>
+      <c r="A998" s="7"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
@@ -28609,7 +28430,7 @@
       <c r="Z998" s="2"/>
     </row>
     <row r="999">
-      <c r="A999" s="9"/>
+      <c r="A999" s="7"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -28637,7 +28458,7 @@
       <c r="Z999" s="2"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="9"/>
+      <c r="A1000" s="7"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>

--- a/Results/Accuracy.xlsx
+++ b/Results/Accuracy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>GAOPAW</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Se</t>
+  </si>
+  <si>
+    <t>Br</t>
   </si>
   <si>
     <t>Rb</t>
@@ -1271,7 +1274,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5">
-        <v>185.206</v>
+        <v>39.515</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1916,13 +1919,23 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="B52" s="5"/>
+      <c r="B52" s="5">
+        <v>1.225</v>
+      </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="5">
+        <v>2.572</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.247</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="5">
+        <v>2.572</v>
+      </c>
+      <c r="H52" s="5">
+        <v>51.763</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2000,13 +2013,23 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="B55" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.378</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.878</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.331</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
+      <c r="H55" s="5">
+        <v>31.295</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2084,13 +2107,23 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="B58" s="5">
+        <v>0.484</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.851</v>
+      </c>
+      <c r="E58" s="5">
+        <v>10.696</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5">
+        <v>48.62</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2168,13 +2201,23 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="B61" s="5">
+        <v>1.202</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.826</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.805</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.926</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="5"/>
+      <c r="H61" s="5">
+        <v>188.083</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2252,13 +2295,23 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="B64" s="5">
+        <v>0.739</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1.074</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.682</v>
+      </c>
+      <c r="E64" s="5">
+        <v>16.256</v>
+      </c>
       <c r="F64" s="5"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="5">
+        <v>50.402</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2336,13 +2389,23 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="5">
+        <v>0.075</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1.019</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.593</v>
+      </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5">
+        <v>3.093</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="5"/>
+      <c r="H67" s="5">
+        <v>21.178</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -2420,13 +2483,23 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="4"/>
+      <c r="B70" s="5">
+        <v>0.057</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1.059</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.197</v>
+      </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5">
+        <v>0.783</v>
+      </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="5">
+        <v>17.404</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -2504,13 +2577,23 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="5">
+        <v>0.619</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.19</v>
+      </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5">
+        <v>0.522</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5">
+        <v>30.866</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -2588,13 +2671,23 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="5">
+        <v>1.279</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1.044</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.444</v>
+      </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5">
+        <v>9.267</v>
+      </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="5"/>
+      <c r="H76" s="5">
+        <v>51.264</v>
+      </c>
       <c r="I76" s="4"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -2672,13 +2765,23 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="5">
+        <v>0.337</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.447</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.253</v>
+      </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5">
+        <v>43.407</v>
+      </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="5"/>
+      <c r="H79" s="5">
+        <v>75.484</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -2756,13 +2859,23 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="B82" s="5">
+        <v>0.559</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.322</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.736</v>
+      </c>
+      <c r="E82" s="5">
+        <v>4.162</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="5"/>
+      <c r="H82" s="5">
+        <v>29.457</v>
+      </c>
       <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -2840,13 +2953,23 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="B85" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.814</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.383</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.884</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="5"/>
+      <c r="H85" s="5">
+        <v>22.414</v>
+      </c>
       <c r="I85" s="4"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -2924,13 +3047,23 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="3">
+        <v>0.289</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.458</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.468</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4.788</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3">
+        <v>39.163</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3008,13 +3141,23 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="3">
+        <v>0.177</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.348</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.839</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5.018</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3">
+        <v>625.908</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -3092,13 +3235,23 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="B94" s="3">
+        <v>0.653</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.458</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.265</v>
+      </c>
+      <c r="E94" s="3">
+        <v>40.79</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
+      <c r="H94" s="3">
+        <v>31.46</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3176,13 +3329,23 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="B97" s="3">
+        <v>0.412</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.299</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.834</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3">
+        <v>52.54</v>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -3231,7 +3394,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3260,13 +3423,23 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="3">
+        <v>0.391</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.755</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15.531</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="3">
+        <v>125.613</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -3315,7 +3488,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3399,7 +3572,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3483,7 +3656,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3567,7 +3740,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3651,7 +3824,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3735,7 +3908,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3819,7 +3992,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3903,7 +4076,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3987,7 +4160,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4071,7 +4244,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4155,7 +4328,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4239,7 +4412,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4323,7 +4496,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4407,7 +4580,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4491,7 +4664,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4575,7 +4748,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4659,7 +4832,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4743,7 +4916,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4827,7 +5000,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4911,7 +5084,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4995,7 +5168,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5079,7 +5252,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5163,7 +5336,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5247,7 +5420,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5331,7 +5504,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5415,7 +5588,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5499,7 +5672,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5583,7 +5756,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5667,7 +5840,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5751,7 +5924,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5835,7 +6008,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5919,7 +6092,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6003,7 +6176,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>

--- a/Results/Accuracy.xlsx
+++ b/Results/Accuracy.xlsx
@@ -34,7 +34,7 @@
     <t>Phonons (THz)</t>
   </si>
   <si>
-    <t>Band gap (%)</t>
+    <t>Band gap (eV)</t>
   </si>
   <si>
     <t>Magnetization (%)</t>
@@ -515,7 +515,7 @@
         <v>1.707</v>
       </c>
       <c r="E7" s="5">
-        <v>0.359</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5">
@@ -611,7 +611,7 @@
         <v>0.45</v>
       </c>
       <c r="E10" s="5">
-        <v>0.579</v>
+        <v>0.033</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -705,7 +705,7 @@
         <v>0.825</v>
       </c>
       <c r="E13" s="5">
-        <v>0.307</v>
+        <v>0.026</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -799,7 +799,7 @@
         <v>1.989</v>
       </c>
       <c r="E16" s="5">
-        <v>2.207</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -893,7 +893,7 @@
         <v>0.617</v>
       </c>
       <c r="E19" s="5">
-        <v>11.411</v>
+        <v>0.14</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -987,7 +987,7 @@
         <v>0.983</v>
       </c>
       <c r="E22" s="5">
-        <v>1.343</v>
+        <v>0.01</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1081,7 +1081,7 @@
         <v>1.473</v>
       </c>
       <c r="E25" s="5">
-        <v>1.171</v>
+        <v>0.055</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1175,7 +1175,7 @@
         <v>0.465</v>
       </c>
       <c r="E28" s="5">
-        <v>2.572</v>
+        <v>0.18</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1269,7 +1269,7 @@
         <v>1.282</v>
       </c>
       <c r="E31" s="5">
-        <v>0.382</v>
+        <v>0.02</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1363,7 +1363,7 @@
         <v>1.473</v>
       </c>
       <c r="E34" s="3">
-        <v>1.171</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1457,7 +1457,7 @@
         <v>0.15</v>
       </c>
       <c r="E37" s="3">
-        <v>1.591</v>
+        <v>0.07</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3">
@@ -1553,7 +1553,7 @@
         <v>0.376</v>
       </c>
       <c r="E40" s="5">
-        <v>9.513</v>
+        <v>0.105</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1647,7 +1647,7 @@
         <v>0.363</v>
       </c>
       <c r="E43" s="5">
-        <v>1.739</v>
+        <v>0.03</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1741,7 +1741,7 @@
         <v>0.272</v>
       </c>
       <c r="E46" s="5">
-        <v>0.566</v>
+        <v>0.015</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1835,7 +1835,7 @@
         <v>1.537</v>
       </c>
       <c r="E49" s="5">
-        <v>0.382</v>
+        <v>0.02</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1927,7 +1927,7 @@
         <v>2.572</v>
       </c>
       <c r="E52" s="5">
-        <v>1.247</v>
+        <v>0.09</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5">
@@ -2023,7 +2023,7 @@
         <v>0.878</v>
       </c>
       <c r="E55" s="5">
-        <v>0.331</v>
+        <v>0.008</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2117,7 +2117,7 @@
         <v>0.851</v>
       </c>
       <c r="E58" s="5">
-        <v>10.696</v>
+        <v>0.15</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2211,7 +2211,7 @@
         <v>0.805</v>
       </c>
       <c r="E61" s="5">
-        <v>1.926</v>
+        <v>0.038</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2305,7 +2305,7 @@
         <v>0.682</v>
       </c>
       <c r="E64" s="5">
-        <v>16.256</v>
+        <v>0.281</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="4"/>
@@ -2869,7 +2869,7 @@
         <v>0.736</v>
       </c>
       <c r="E82" s="5">
-        <v>4.162</v>
+        <v>0.045</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -2963,7 +2963,7 @@
         <v>0.383</v>
       </c>
       <c r="E85" s="5">
-        <v>0.884</v>
+        <v>0.018</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -3057,7 +3057,7 @@
         <v>0.468</v>
       </c>
       <c r="E88" s="3">
-        <v>4.788</v>
+        <v>0.073</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3151,7 +3151,7 @@
         <v>0.839</v>
       </c>
       <c r="E91" s="3">
-        <v>5.018</v>
+        <v>0.002</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3245,7 +3245,7 @@
         <v>0.265</v>
       </c>
       <c r="E94" s="3">
-        <v>40.79</v>
+        <v>0.125</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3339,7 +3339,7 @@
         <v>0.153</v>
       </c>
       <c r="E97" s="3">
-        <v>0.834</v>
+        <v>0.019</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3433,7 +3433,7 @@
         <v>0.755</v>
       </c>
       <c r="E100" s="3">
-        <v>15.531</v>
+        <v>0.252</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -28660,15 +28660,49 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
     <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
@@ -28676,56 +28710,22 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B3:H4"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
     <mergeCell ref="A111:A113"/>
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="A78:A80"/>
     <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
